--- a/渠道文档/渠道SDK信息统计.xlsx
+++ b/渠道文档/渠道SDK信息统计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="181">
   <si>
     <t>渠道</t>
   </si>
@@ -579,13 +579,21 @@
   <si>
     <t xml:space="preserve">http://dev.1sdk.cn/server/account_info.html </t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -633,6 +641,12 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -752,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,6 +843,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1641,7 +1658,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2593,8 +2610,8 @@
         <v>86</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>23</v>
+      <c r="D31" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>23</v>
@@ -2690,10 +2707,16 @@
       <c r="A36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2">
+        <v>1.8</v>
+      </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2851,8 +2874,8 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/渠道文档/渠道SDK信息统计.xlsx
+++ b/渠道文档/渠道SDK信息统计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\渠道文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9912"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13068"/>
   </bookViews>
   <sheets>
     <sheet name="技术" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="187">
   <si>
     <t>渠道</t>
   </si>
@@ -389,9 +394,6 @@
     <t>PPTV</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>.pptv</t>
   </si>
   <si>
@@ -606,19 +608,17 @@
   </si>
   <si>
     <t>游戏群</t>
+  </si>
+  <si>
+    <t>V4.5.03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -657,150 +657,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,194 +681,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1084,251 +766,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,25 +791,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1411,57 +854,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1480,6 +886,7 @@
     <tableColumn id="10" name="重编译id"/>
     <tableColumn id="11" name="是否测试通过"/>
   </tableColumns>
+  <tableStyleInfo name="None" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1491,6 +898,7 @@
     <tableColumn id="3" name="账号"/>
     <tableColumn id="4" name="密码"/>
   </tableColumns>
+  <tableStyleInfo name="None" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1751,30 +1159,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16.6" customWidth="1"/>
-    <col min="6" max="6" width="22.1" customWidth="1"/>
-    <col min="7" max="7" width="10.9" customWidth="1"/>
-    <col min="8" max="10" width="10.7" customWidth="1"/>
-    <col min="11" max="11" width="18.2" customWidth="1"/>
-    <col min="12" max="12" width="15.7" customWidth="1"/>
-    <col min="13" max="13" width="12.7" customWidth="1"/>
-    <col min="14" max="14" width="10.7" customWidth="1"/>
-    <col min="15" max="15" width="16.6" customWidth="1"/>
+    <col min="1" max="5" width="16.59765625" customWidth="1"/>
+    <col min="6" max="6" width="22.09765625" customWidth="1"/>
+    <col min="7" max="7" width="10.8984375" customWidth="1"/>
+    <col min="8" max="10" width="10.69921875" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" customWidth="1"/>
+    <col min="12" max="12" width="15.69921875" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" customWidth="1"/>
+    <col min="15" max="15" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.95" customHeight="1" spans="1:15">
+    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1813,7 +1219,7 @@
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
     </row>
-    <row r="2" ht="19.95" customHeight="1" spans="1:15">
+    <row r="2" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +1248,7 @@
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
     </row>
-    <row r="3" ht="19.95" customHeight="1" spans="1:15">
+    <row r="3" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>360</v>
       </c>
@@ -1871,7 +1277,7 @@
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
     </row>
-    <row r="4" ht="19.95" customHeight="1" spans="1:15">
+    <row r="4" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>18</v>
       </c>
@@ -1906,7 +1312,7 @@
       <c r="N4" s="26"/>
       <c r="O4" s="26"/>
     </row>
-    <row r="5" ht="19.95" customHeight="1" spans="1:15">
+    <row r="5" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
@@ -1941,7 +1347,7 @@
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
     </row>
-    <row r="6" ht="19.95" customHeight="1" spans="1:15">
+    <row r="6" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>25</v>
       </c>
@@ -1976,7 +1382,7 @@
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
     </row>
-    <row r="7" ht="19.95" customHeight="1" spans="1:15">
+    <row r="7" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
@@ -2001,7 +1407,7 @@
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
     </row>
-    <row r="8" ht="19.95" customHeight="1" spans="1:15">
+    <row r="8" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>32</v>
       </c>
@@ -2026,7 +1432,7 @@
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
     </row>
-    <row r="9" ht="19.95" customHeight="1" spans="1:15">
+    <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>35</v>
       </c>
@@ -2057,7 +1463,7 @@
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
     </row>
-    <row r="10" ht="19.95" customHeight="1" spans="1:15">
+    <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>38</v>
       </c>
@@ -2088,7 +1494,7 @@
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
     </row>
-    <row r="11" ht="19.95" customHeight="1" spans="1:15">
+    <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>41</v>
       </c>
@@ -2123,7 +1529,7 @@
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
     </row>
-    <row r="12" ht="19.95" customHeight="1" spans="1:15">
+    <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>44</v>
       </c>
@@ -2158,7 +1564,7 @@
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
     </row>
-    <row r="13" ht="19.95" customHeight="1" spans="1:15">
+    <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>47</v>
       </c>
@@ -2174,7 +1580,9 @@
       <c r="G13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="21"/>
+      <c r="H13" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -2183,7 +1591,7 @@
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
     </row>
-    <row r="14" ht="19.95" customHeight="1" spans="1:15">
+    <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>50</v>
       </c>
@@ -2218,7 +1626,7 @@
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
     </row>
-    <row r="15" ht="19.95" customHeight="1" spans="1:15">
+    <row r="15" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>4399</v>
       </c>
@@ -2247,7 +1655,7 @@
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
     </row>
-    <row r="16" ht="19.95" customHeight="1" spans="1:15">
+    <row r="16" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>55</v>
       </c>
@@ -2272,7 +1680,7 @@
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
     </row>
-    <row r="17" ht="19.95" customHeight="1" spans="1:15">
+    <row r="17" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>58</v>
       </c>
@@ -2309,7 +1717,7 @@
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
     </row>
-    <row r="18" ht="19.95" customHeight="1" spans="1:15">
+    <row r="18" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>63</v>
       </c>
@@ -2344,7 +1752,7 @@
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
     </row>
-    <row r="19" ht="19.95" customHeight="1" spans="1:15">
+    <row r="19" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>66</v>
       </c>
@@ -2381,7 +1789,7 @@
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" ht="19.95" customHeight="1" spans="1:15">
+    <row r="20" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>68</v>
       </c>
@@ -2406,7 +1814,7 @@
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
     </row>
-    <row r="21" ht="19.95" customHeight="1" spans="1:15">
+    <row r="21" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>71</v>
       </c>
@@ -2431,7 +1839,7 @@
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
     </row>
-    <row r="22" ht="19.95" customHeight="1" spans="1:15">
+    <row r="22" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>74</v>
       </c>
@@ -2456,7 +1864,7 @@
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
     </row>
-    <row r="23" ht="19.95" customHeight="1" spans="1:15">
+    <row r="23" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>77</v>
       </c>
@@ -2481,7 +1889,7 @@
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" ht="19.95" customHeight="1" spans="1:15">
+    <row r="24" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>80</v>
       </c>
@@ -2516,7 +1924,7 @@
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
     </row>
-    <row r="25" ht="19.95" customHeight="1" spans="1:15">
+    <row r="25" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>83</v>
       </c>
@@ -2551,7 +1959,7 @@
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
     </row>
-    <row r="26" ht="19.95" customHeight="1" spans="1:15">
+    <row r="26" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>84</v>
       </c>
@@ -2586,7 +1994,7 @@
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
     </row>
-    <row r="27" ht="19.95" customHeight="1" spans="1:15">
+    <row r="27" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>87</v>
       </c>
@@ -2617,7 +2025,7 @@
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
     </row>
-    <row r="28" ht="19.95" customHeight="1" spans="1:15">
+    <row r="28" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>90</v>
       </c>
@@ -2648,7 +2056,7 @@
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
     </row>
-    <row r="29" ht="19.95" customHeight="1" spans="1:15">
+    <row r="29" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>9669</v>
       </c>
@@ -2667,7 +2075,7 @@
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
     </row>
-    <row r="30" ht="19.95" customHeight="1" spans="1:15">
+    <row r="30" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>93</v>
       </c>
@@ -2702,7 +2110,7 @@
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
     </row>
-    <row r="31" ht="19.95" customHeight="1" spans="1:15">
+    <row r="31" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>96</v>
       </c>
@@ -2737,7 +2145,7 @@
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
     </row>
-    <row r="32" ht="19.95" customHeight="1" spans="1:15">
+    <row r="32" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>99</v>
       </c>
@@ -2756,7 +2164,7 @@
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
     </row>
-    <row r="33" ht="19.95" customHeight="1" spans="1:11">
+    <row r="33" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>100</v>
       </c>
@@ -2773,7 +2181,7 @@
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" ht="19.95" customHeight="1" spans="1:11">
+    <row r="34" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>102</v>
       </c>
@@ -2788,7 +2196,7 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" ht="19.95" customHeight="1" spans="1:11">
+    <row r="35" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>103</v>
       </c>
@@ -2803,7 +2211,7 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" ht="19.95" customHeight="1" spans="1:11">
+    <row r="36" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>104</v>
       </c>
@@ -2830,7 +2238,7 @@
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" ht="19.95" customHeight="1" spans="1:11">
+    <row r="37" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>107</v>
       </c>
@@ -2857,7 +2265,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" ht="19.95" customHeight="1" spans="1:11">
+    <row r="38" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>110</v>
       </c>
@@ -2884,18 +2292,22 @@
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" ht="19.95" customHeight="1" spans="1:11">
+    <row r="39" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="21" t="s">
+        <v>186</v>
+      </c>
       <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="20" t="s">
+      <c r="D39" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -2903,9 +2315,9 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" ht="19.95" customHeight="1" spans="1:11">
+    <row r="40" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2918,9 +2330,9 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" ht="19.95" customHeight="1" spans="1:11">
+    <row r="41" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2933,9 +2345,9 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" ht="19.95" customHeight="1" spans="1:11">
+    <row r="42" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2948,12 +2360,12 @@
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" ht="19.95" customHeight="1" spans="1:11">
+    <row r="43" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>119</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>120</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="20" t="s">
@@ -2963,41 +2375,47 @@
         <v>27</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+        <v>120</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" ht="19.95" customHeight="1" spans="1:11">
+    <row r="44" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="G44" s="21"/>
+        <v>122</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" ht="19.95" customHeight="1" spans="1:11">
+    <row r="45" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -3005,12 +2423,12 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" ht="25.05" customHeight="1" spans="1:11">
+    <row r="46" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" s="19">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="19" t="s">
@@ -3022,891 +2440,896 @@
       <c r="F46" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="G46" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.2" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="1" customWidth="1"/>
     <col min="5" max="255" width="9" style="1"/>
-    <col min="256" max="256" width="15.9" style="1" customWidth="1"/>
-    <col min="257" max="257" width="76.8" style="1" customWidth="1"/>
-    <col min="258" max="258" width="32.9" style="1" customWidth="1"/>
-    <col min="259" max="259" width="21.2" style="1" customWidth="1"/>
-    <col min="260" max="260" width="20.2" style="1" customWidth="1"/>
+    <col min="256" max="256" width="15.8984375" style="1" customWidth="1"/>
+    <col min="257" max="257" width="76.796875" style="1" customWidth="1"/>
+    <col min="258" max="258" width="32.8984375" style="1" customWidth="1"/>
+    <col min="259" max="259" width="21.19921875" style="1" customWidth="1"/>
+    <col min="260" max="260" width="20.19921875" style="1" customWidth="1"/>
     <col min="261" max="511" width="9" style="1"/>
-    <col min="512" max="512" width="15.9" style="1" customWidth="1"/>
-    <col min="513" max="513" width="76.8" style="1" customWidth="1"/>
-    <col min="514" max="514" width="32.9" style="1" customWidth="1"/>
-    <col min="515" max="515" width="21.2" style="1" customWidth="1"/>
-    <col min="516" max="516" width="20.2" style="1" customWidth="1"/>
+    <col min="512" max="512" width="15.8984375" style="1" customWidth="1"/>
+    <col min="513" max="513" width="76.796875" style="1" customWidth="1"/>
+    <col min="514" max="514" width="32.8984375" style="1" customWidth="1"/>
+    <col min="515" max="515" width="21.19921875" style="1" customWidth="1"/>
+    <col min="516" max="516" width="20.19921875" style="1" customWidth="1"/>
     <col min="517" max="767" width="9" style="1"/>
-    <col min="768" max="768" width="15.9" style="1" customWidth="1"/>
-    <col min="769" max="769" width="76.8" style="1" customWidth="1"/>
-    <col min="770" max="770" width="32.9" style="1" customWidth="1"/>
-    <col min="771" max="771" width="21.2" style="1" customWidth="1"/>
-    <col min="772" max="772" width="20.2" style="1" customWidth="1"/>
+    <col min="768" max="768" width="15.8984375" style="1" customWidth="1"/>
+    <col min="769" max="769" width="76.796875" style="1" customWidth="1"/>
+    <col min="770" max="770" width="32.8984375" style="1" customWidth="1"/>
+    <col min="771" max="771" width="21.19921875" style="1" customWidth="1"/>
+    <col min="772" max="772" width="20.19921875" style="1" customWidth="1"/>
     <col min="773" max="1023" width="9" style="1"/>
-    <col min="1024" max="1024" width="15.9" style="1" customWidth="1"/>
-    <col min="1025" max="1025" width="76.8" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="32.9" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="21.2" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="20.2" style="1" customWidth="1"/>
+    <col min="1024" max="1024" width="15.8984375" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="76.796875" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="32.8984375" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="21.19921875" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="20.19921875" style="1" customWidth="1"/>
     <col min="1029" max="1279" width="9" style="1"/>
-    <col min="1280" max="1280" width="15.9" style="1" customWidth="1"/>
-    <col min="1281" max="1281" width="76.8" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="32.9" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="21.2" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="20.2" style="1" customWidth="1"/>
+    <col min="1280" max="1280" width="15.8984375" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="76.796875" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="32.8984375" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="21.19921875" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="20.19921875" style="1" customWidth="1"/>
     <col min="1285" max="1535" width="9" style="1"/>
-    <col min="1536" max="1536" width="15.9" style="1" customWidth="1"/>
-    <col min="1537" max="1537" width="76.8" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="32.9" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="21.2" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="20.2" style="1" customWidth="1"/>
+    <col min="1536" max="1536" width="15.8984375" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="76.796875" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="32.8984375" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="21.19921875" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="20.19921875" style="1" customWidth="1"/>
     <col min="1541" max="1791" width="9" style="1"/>
-    <col min="1792" max="1792" width="15.9" style="1" customWidth="1"/>
-    <col min="1793" max="1793" width="76.8" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="32.9" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="21.2" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="20.2" style="1" customWidth="1"/>
+    <col min="1792" max="1792" width="15.8984375" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="76.796875" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="32.8984375" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="21.19921875" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="20.19921875" style="1" customWidth="1"/>
     <col min="1797" max="2047" width="9" style="1"/>
-    <col min="2048" max="2048" width="15.9" style="1" customWidth="1"/>
-    <col min="2049" max="2049" width="76.8" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="32.9" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="21.2" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="20.2" style="1" customWidth="1"/>
+    <col min="2048" max="2048" width="15.8984375" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="76.796875" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="32.8984375" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="21.19921875" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="20.19921875" style="1" customWidth="1"/>
     <col min="2053" max="2303" width="9" style="1"/>
-    <col min="2304" max="2304" width="15.9" style="1" customWidth="1"/>
-    <col min="2305" max="2305" width="76.8" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="32.9" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="21.2" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="20.2" style="1" customWidth="1"/>
+    <col min="2304" max="2304" width="15.8984375" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="76.796875" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="32.8984375" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="21.19921875" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="20.19921875" style="1" customWidth="1"/>
     <col min="2309" max="2559" width="9" style="1"/>
-    <col min="2560" max="2560" width="15.9" style="1" customWidth="1"/>
-    <col min="2561" max="2561" width="76.8" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="32.9" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="21.2" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="20.2" style="1" customWidth="1"/>
+    <col min="2560" max="2560" width="15.8984375" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="76.796875" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="32.8984375" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="21.19921875" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="20.19921875" style="1" customWidth="1"/>
     <col min="2565" max="2815" width="9" style="1"/>
-    <col min="2816" max="2816" width="15.9" style="1" customWidth="1"/>
-    <col min="2817" max="2817" width="76.8" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="32.9" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="21.2" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="20.2" style="1" customWidth="1"/>
+    <col min="2816" max="2816" width="15.8984375" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="76.796875" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="32.8984375" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="21.19921875" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="20.19921875" style="1" customWidth="1"/>
     <col min="2821" max="3071" width="9" style="1"/>
-    <col min="3072" max="3072" width="15.9" style="1" customWidth="1"/>
-    <col min="3073" max="3073" width="76.8" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="32.9" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="21.2" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="20.2" style="1" customWidth="1"/>
+    <col min="3072" max="3072" width="15.8984375" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="76.796875" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="32.8984375" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="21.19921875" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="20.19921875" style="1" customWidth="1"/>
     <col min="3077" max="3327" width="9" style="1"/>
-    <col min="3328" max="3328" width="15.9" style="1" customWidth="1"/>
-    <col min="3329" max="3329" width="76.8" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="32.9" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="21.2" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="20.2" style="1" customWidth="1"/>
+    <col min="3328" max="3328" width="15.8984375" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="76.796875" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="32.8984375" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="21.19921875" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="20.19921875" style="1" customWidth="1"/>
     <col min="3333" max="3583" width="9" style="1"/>
-    <col min="3584" max="3584" width="15.9" style="1" customWidth="1"/>
-    <col min="3585" max="3585" width="76.8" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="32.9" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="21.2" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="20.2" style="1" customWidth="1"/>
+    <col min="3584" max="3584" width="15.8984375" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="76.796875" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="32.8984375" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="21.19921875" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="20.19921875" style="1" customWidth="1"/>
     <col min="3589" max="3839" width="9" style="1"/>
-    <col min="3840" max="3840" width="15.9" style="1" customWidth="1"/>
-    <col min="3841" max="3841" width="76.8" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="32.9" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="21.2" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="20.2" style="1" customWidth="1"/>
+    <col min="3840" max="3840" width="15.8984375" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="76.796875" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="32.8984375" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="21.19921875" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="20.19921875" style="1" customWidth="1"/>
     <col min="3845" max="4095" width="9" style="1"/>
-    <col min="4096" max="4096" width="15.9" style="1" customWidth="1"/>
-    <col min="4097" max="4097" width="76.8" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="32.9" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="21.2" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="20.2" style="1" customWidth="1"/>
+    <col min="4096" max="4096" width="15.8984375" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="76.796875" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="32.8984375" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="21.19921875" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="20.19921875" style="1" customWidth="1"/>
     <col min="4101" max="4351" width="9" style="1"/>
-    <col min="4352" max="4352" width="15.9" style="1" customWidth="1"/>
-    <col min="4353" max="4353" width="76.8" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="32.9" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="21.2" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="20.2" style="1" customWidth="1"/>
+    <col min="4352" max="4352" width="15.8984375" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="76.796875" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="32.8984375" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="21.19921875" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="20.19921875" style="1" customWidth="1"/>
     <col min="4357" max="4607" width="9" style="1"/>
-    <col min="4608" max="4608" width="15.9" style="1" customWidth="1"/>
-    <col min="4609" max="4609" width="76.8" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="32.9" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="21.2" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="20.2" style="1" customWidth="1"/>
+    <col min="4608" max="4608" width="15.8984375" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="76.796875" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="32.8984375" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="21.19921875" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="20.19921875" style="1" customWidth="1"/>
     <col min="4613" max="4863" width="9" style="1"/>
-    <col min="4864" max="4864" width="15.9" style="1" customWidth="1"/>
-    <col min="4865" max="4865" width="76.8" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="32.9" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="21.2" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="20.2" style="1" customWidth="1"/>
+    <col min="4864" max="4864" width="15.8984375" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="76.796875" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="32.8984375" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="21.19921875" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="20.19921875" style="1" customWidth="1"/>
     <col min="4869" max="5119" width="9" style="1"/>
-    <col min="5120" max="5120" width="15.9" style="1" customWidth="1"/>
-    <col min="5121" max="5121" width="76.8" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="32.9" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="21.2" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="20.2" style="1" customWidth="1"/>
+    <col min="5120" max="5120" width="15.8984375" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="76.796875" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="32.8984375" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="21.19921875" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="20.19921875" style="1" customWidth="1"/>
     <col min="5125" max="5375" width="9" style="1"/>
-    <col min="5376" max="5376" width="15.9" style="1" customWidth="1"/>
-    <col min="5377" max="5377" width="76.8" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="32.9" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="21.2" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="20.2" style="1" customWidth="1"/>
+    <col min="5376" max="5376" width="15.8984375" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="76.796875" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="32.8984375" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="21.19921875" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="20.19921875" style="1" customWidth="1"/>
     <col min="5381" max="5631" width="9" style="1"/>
-    <col min="5632" max="5632" width="15.9" style="1" customWidth="1"/>
-    <col min="5633" max="5633" width="76.8" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="32.9" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="21.2" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="20.2" style="1" customWidth="1"/>
+    <col min="5632" max="5632" width="15.8984375" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="76.796875" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="32.8984375" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="21.19921875" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="20.19921875" style="1" customWidth="1"/>
     <col min="5637" max="5887" width="9" style="1"/>
-    <col min="5888" max="5888" width="15.9" style="1" customWidth="1"/>
-    <col min="5889" max="5889" width="76.8" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="32.9" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="21.2" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="20.2" style="1" customWidth="1"/>
+    <col min="5888" max="5888" width="15.8984375" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="76.796875" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="32.8984375" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="21.19921875" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="20.19921875" style="1" customWidth="1"/>
     <col min="5893" max="6143" width="9" style="1"/>
-    <col min="6144" max="6144" width="15.9" style="1" customWidth="1"/>
-    <col min="6145" max="6145" width="76.8" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="32.9" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="21.2" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="20.2" style="1" customWidth="1"/>
+    <col min="6144" max="6144" width="15.8984375" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="76.796875" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="32.8984375" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="21.19921875" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="20.19921875" style="1" customWidth="1"/>
     <col min="6149" max="6399" width="9" style="1"/>
-    <col min="6400" max="6400" width="15.9" style="1" customWidth="1"/>
-    <col min="6401" max="6401" width="76.8" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="32.9" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="21.2" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="20.2" style="1" customWidth="1"/>
+    <col min="6400" max="6400" width="15.8984375" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="76.796875" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="32.8984375" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="21.19921875" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="20.19921875" style="1" customWidth="1"/>
     <col min="6405" max="6655" width="9" style="1"/>
-    <col min="6656" max="6656" width="15.9" style="1" customWidth="1"/>
-    <col min="6657" max="6657" width="76.8" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="32.9" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="21.2" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="20.2" style="1" customWidth="1"/>
+    <col min="6656" max="6656" width="15.8984375" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="76.796875" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="32.8984375" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="21.19921875" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="20.19921875" style="1" customWidth="1"/>
     <col min="6661" max="6911" width="9" style="1"/>
-    <col min="6912" max="6912" width="15.9" style="1" customWidth="1"/>
-    <col min="6913" max="6913" width="76.8" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="32.9" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="21.2" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="20.2" style="1" customWidth="1"/>
+    <col min="6912" max="6912" width="15.8984375" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="76.796875" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="32.8984375" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="21.19921875" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="20.19921875" style="1" customWidth="1"/>
     <col min="6917" max="7167" width="9" style="1"/>
-    <col min="7168" max="7168" width="15.9" style="1" customWidth="1"/>
-    <col min="7169" max="7169" width="76.8" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="32.9" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="21.2" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="20.2" style="1" customWidth="1"/>
+    <col min="7168" max="7168" width="15.8984375" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="76.796875" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="32.8984375" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="21.19921875" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="20.19921875" style="1" customWidth="1"/>
     <col min="7173" max="7423" width="9" style="1"/>
-    <col min="7424" max="7424" width="15.9" style="1" customWidth="1"/>
-    <col min="7425" max="7425" width="76.8" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="32.9" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="21.2" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="20.2" style="1" customWidth="1"/>
+    <col min="7424" max="7424" width="15.8984375" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="76.796875" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="32.8984375" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="21.19921875" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="20.19921875" style="1" customWidth="1"/>
     <col min="7429" max="7679" width="9" style="1"/>
-    <col min="7680" max="7680" width="15.9" style="1" customWidth="1"/>
-    <col min="7681" max="7681" width="76.8" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="32.9" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="21.2" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="20.2" style="1" customWidth="1"/>
+    <col min="7680" max="7680" width="15.8984375" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="76.796875" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="32.8984375" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="21.19921875" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="20.19921875" style="1" customWidth="1"/>
     <col min="7685" max="7935" width="9" style="1"/>
-    <col min="7936" max="7936" width="15.9" style="1" customWidth="1"/>
-    <col min="7937" max="7937" width="76.8" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="32.9" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="21.2" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="20.2" style="1" customWidth="1"/>
+    <col min="7936" max="7936" width="15.8984375" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="76.796875" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="32.8984375" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="21.19921875" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="20.19921875" style="1" customWidth="1"/>
     <col min="7941" max="8191" width="9" style="1"/>
-    <col min="8192" max="8192" width="15.9" style="1" customWidth="1"/>
-    <col min="8193" max="8193" width="76.8" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="32.9" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="21.2" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="20.2" style="1" customWidth="1"/>
+    <col min="8192" max="8192" width="15.8984375" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="76.796875" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="32.8984375" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="21.19921875" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="20.19921875" style="1" customWidth="1"/>
     <col min="8197" max="8447" width="9" style="1"/>
-    <col min="8448" max="8448" width="15.9" style="1" customWidth="1"/>
-    <col min="8449" max="8449" width="76.8" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="32.9" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="21.2" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="20.2" style="1" customWidth="1"/>
+    <col min="8448" max="8448" width="15.8984375" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="76.796875" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="32.8984375" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="21.19921875" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="20.19921875" style="1" customWidth="1"/>
     <col min="8453" max="8703" width="9" style="1"/>
-    <col min="8704" max="8704" width="15.9" style="1" customWidth="1"/>
-    <col min="8705" max="8705" width="76.8" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="32.9" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="21.2" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="20.2" style="1" customWidth="1"/>
+    <col min="8704" max="8704" width="15.8984375" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="76.796875" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="32.8984375" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="21.19921875" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="20.19921875" style="1" customWidth="1"/>
     <col min="8709" max="8959" width="9" style="1"/>
-    <col min="8960" max="8960" width="15.9" style="1" customWidth="1"/>
-    <col min="8961" max="8961" width="76.8" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="32.9" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="21.2" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="20.2" style="1" customWidth="1"/>
+    <col min="8960" max="8960" width="15.8984375" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="76.796875" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="32.8984375" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="21.19921875" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="20.19921875" style="1" customWidth="1"/>
     <col min="8965" max="9215" width="9" style="1"/>
-    <col min="9216" max="9216" width="15.9" style="1" customWidth="1"/>
-    <col min="9217" max="9217" width="76.8" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="32.9" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="21.2" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="20.2" style="1" customWidth="1"/>
+    <col min="9216" max="9216" width="15.8984375" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="76.796875" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="32.8984375" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="21.19921875" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="20.19921875" style="1" customWidth="1"/>
     <col min="9221" max="9471" width="9" style="1"/>
-    <col min="9472" max="9472" width="15.9" style="1" customWidth="1"/>
-    <col min="9473" max="9473" width="76.8" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="32.9" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="21.2" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="20.2" style="1" customWidth="1"/>
+    <col min="9472" max="9472" width="15.8984375" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="76.796875" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="32.8984375" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="21.19921875" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="20.19921875" style="1" customWidth="1"/>
     <col min="9477" max="9727" width="9" style="1"/>
-    <col min="9728" max="9728" width="15.9" style="1" customWidth="1"/>
-    <col min="9729" max="9729" width="76.8" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="32.9" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="21.2" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="20.2" style="1" customWidth="1"/>
+    <col min="9728" max="9728" width="15.8984375" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="76.796875" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="32.8984375" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="21.19921875" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="20.19921875" style="1" customWidth="1"/>
     <col min="9733" max="9983" width="9" style="1"/>
-    <col min="9984" max="9984" width="15.9" style="1" customWidth="1"/>
-    <col min="9985" max="9985" width="76.8" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="32.9" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="21.2" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="20.2" style="1" customWidth="1"/>
+    <col min="9984" max="9984" width="15.8984375" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="76.796875" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="32.8984375" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="21.19921875" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="20.19921875" style="1" customWidth="1"/>
     <col min="9989" max="10239" width="9" style="1"/>
-    <col min="10240" max="10240" width="15.9" style="1" customWidth="1"/>
-    <col min="10241" max="10241" width="76.8" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="32.9" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="21.2" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="20.2" style="1" customWidth="1"/>
+    <col min="10240" max="10240" width="15.8984375" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="76.796875" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="32.8984375" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="21.19921875" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="20.19921875" style="1" customWidth="1"/>
     <col min="10245" max="10495" width="9" style="1"/>
-    <col min="10496" max="10496" width="15.9" style="1" customWidth="1"/>
-    <col min="10497" max="10497" width="76.8" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="32.9" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="21.2" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="20.2" style="1" customWidth="1"/>
+    <col min="10496" max="10496" width="15.8984375" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="76.796875" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="32.8984375" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="21.19921875" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="20.19921875" style="1" customWidth="1"/>
     <col min="10501" max="10751" width="9" style="1"/>
-    <col min="10752" max="10752" width="15.9" style="1" customWidth="1"/>
-    <col min="10753" max="10753" width="76.8" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="32.9" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="21.2" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="20.2" style="1" customWidth="1"/>
+    <col min="10752" max="10752" width="15.8984375" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="76.796875" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="32.8984375" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="21.19921875" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="20.19921875" style="1" customWidth="1"/>
     <col min="10757" max="11007" width="9" style="1"/>
-    <col min="11008" max="11008" width="15.9" style="1" customWidth="1"/>
-    <col min="11009" max="11009" width="76.8" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="32.9" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="21.2" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="20.2" style="1" customWidth="1"/>
+    <col min="11008" max="11008" width="15.8984375" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="76.796875" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="32.8984375" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="21.19921875" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="20.19921875" style="1" customWidth="1"/>
     <col min="11013" max="11263" width="9" style="1"/>
-    <col min="11264" max="11264" width="15.9" style="1" customWidth="1"/>
-    <col min="11265" max="11265" width="76.8" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="32.9" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="21.2" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="20.2" style="1" customWidth="1"/>
+    <col min="11264" max="11264" width="15.8984375" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="76.796875" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="32.8984375" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="21.19921875" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="20.19921875" style="1" customWidth="1"/>
     <col min="11269" max="11519" width="9" style="1"/>
-    <col min="11520" max="11520" width="15.9" style="1" customWidth="1"/>
-    <col min="11521" max="11521" width="76.8" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="32.9" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="21.2" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="20.2" style="1" customWidth="1"/>
+    <col min="11520" max="11520" width="15.8984375" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="76.796875" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="32.8984375" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="21.19921875" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="20.19921875" style="1" customWidth="1"/>
     <col min="11525" max="11775" width="9" style="1"/>
-    <col min="11776" max="11776" width="15.9" style="1" customWidth="1"/>
-    <col min="11777" max="11777" width="76.8" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="32.9" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="21.2" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="20.2" style="1" customWidth="1"/>
+    <col min="11776" max="11776" width="15.8984375" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="76.796875" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="32.8984375" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="21.19921875" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="20.19921875" style="1" customWidth="1"/>
     <col min="11781" max="12031" width="9" style="1"/>
-    <col min="12032" max="12032" width="15.9" style="1" customWidth="1"/>
-    <col min="12033" max="12033" width="76.8" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="32.9" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="21.2" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="20.2" style="1" customWidth="1"/>
+    <col min="12032" max="12032" width="15.8984375" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="76.796875" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="32.8984375" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="21.19921875" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="20.19921875" style="1" customWidth="1"/>
     <col min="12037" max="12287" width="9" style="1"/>
-    <col min="12288" max="12288" width="15.9" style="1" customWidth="1"/>
-    <col min="12289" max="12289" width="76.8" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="32.9" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="21.2" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="20.2" style="1" customWidth="1"/>
+    <col min="12288" max="12288" width="15.8984375" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="76.796875" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="32.8984375" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="21.19921875" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="20.19921875" style="1" customWidth="1"/>
     <col min="12293" max="12543" width="9" style="1"/>
-    <col min="12544" max="12544" width="15.9" style="1" customWidth="1"/>
-    <col min="12545" max="12545" width="76.8" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="32.9" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="21.2" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="20.2" style="1" customWidth="1"/>
+    <col min="12544" max="12544" width="15.8984375" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="76.796875" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="32.8984375" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="21.19921875" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="20.19921875" style="1" customWidth="1"/>
     <col min="12549" max="12799" width="9" style="1"/>
-    <col min="12800" max="12800" width="15.9" style="1" customWidth="1"/>
-    <col min="12801" max="12801" width="76.8" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="32.9" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="21.2" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="20.2" style="1" customWidth="1"/>
+    <col min="12800" max="12800" width="15.8984375" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="76.796875" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="32.8984375" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="21.19921875" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="20.19921875" style="1" customWidth="1"/>
     <col min="12805" max="13055" width="9" style="1"/>
-    <col min="13056" max="13056" width="15.9" style="1" customWidth="1"/>
-    <col min="13057" max="13057" width="76.8" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="32.9" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="21.2" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="20.2" style="1" customWidth="1"/>
+    <col min="13056" max="13056" width="15.8984375" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="76.796875" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="32.8984375" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="21.19921875" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="20.19921875" style="1" customWidth="1"/>
     <col min="13061" max="13311" width="9" style="1"/>
-    <col min="13312" max="13312" width="15.9" style="1" customWidth="1"/>
-    <col min="13313" max="13313" width="76.8" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="32.9" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="21.2" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="20.2" style="1" customWidth="1"/>
+    <col min="13312" max="13312" width="15.8984375" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="76.796875" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="32.8984375" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="21.19921875" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="20.19921875" style="1" customWidth="1"/>
     <col min="13317" max="13567" width="9" style="1"/>
-    <col min="13568" max="13568" width="15.9" style="1" customWidth="1"/>
-    <col min="13569" max="13569" width="76.8" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="32.9" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="21.2" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="20.2" style="1" customWidth="1"/>
+    <col min="13568" max="13568" width="15.8984375" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="76.796875" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="32.8984375" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="21.19921875" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="20.19921875" style="1" customWidth="1"/>
     <col min="13573" max="13823" width="9" style="1"/>
-    <col min="13824" max="13824" width="15.9" style="1" customWidth="1"/>
-    <col min="13825" max="13825" width="76.8" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="32.9" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="21.2" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="20.2" style="1" customWidth="1"/>
+    <col min="13824" max="13824" width="15.8984375" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="76.796875" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="32.8984375" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="21.19921875" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="20.19921875" style="1" customWidth="1"/>
     <col min="13829" max="14079" width="9" style="1"/>
-    <col min="14080" max="14080" width="15.9" style="1" customWidth="1"/>
-    <col min="14081" max="14081" width="76.8" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="32.9" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="21.2" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="20.2" style="1" customWidth="1"/>
+    <col min="14080" max="14080" width="15.8984375" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="76.796875" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="32.8984375" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="21.19921875" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="20.19921875" style="1" customWidth="1"/>
     <col min="14085" max="14335" width="9" style="1"/>
-    <col min="14336" max="14336" width="15.9" style="1" customWidth="1"/>
-    <col min="14337" max="14337" width="76.8" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="32.9" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="21.2" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="20.2" style="1" customWidth="1"/>
+    <col min="14336" max="14336" width="15.8984375" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="76.796875" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="32.8984375" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="21.19921875" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="20.19921875" style="1" customWidth="1"/>
     <col min="14341" max="14591" width="9" style="1"/>
-    <col min="14592" max="14592" width="15.9" style="1" customWidth="1"/>
-    <col min="14593" max="14593" width="76.8" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="32.9" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="21.2" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="20.2" style="1" customWidth="1"/>
+    <col min="14592" max="14592" width="15.8984375" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="76.796875" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="32.8984375" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="21.19921875" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="20.19921875" style="1" customWidth="1"/>
     <col min="14597" max="14847" width="9" style="1"/>
-    <col min="14848" max="14848" width="15.9" style="1" customWidth="1"/>
-    <col min="14849" max="14849" width="76.8" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="32.9" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="21.2" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="20.2" style="1" customWidth="1"/>
+    <col min="14848" max="14848" width="15.8984375" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="76.796875" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="32.8984375" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="21.19921875" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="20.19921875" style="1" customWidth="1"/>
     <col min="14853" max="15103" width="9" style="1"/>
-    <col min="15104" max="15104" width="15.9" style="1" customWidth="1"/>
-    <col min="15105" max="15105" width="76.8" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="32.9" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="21.2" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="20.2" style="1" customWidth="1"/>
+    <col min="15104" max="15104" width="15.8984375" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="76.796875" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="32.8984375" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="21.19921875" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="20.19921875" style="1" customWidth="1"/>
     <col min="15109" max="15359" width="9" style="1"/>
-    <col min="15360" max="15360" width="15.9" style="1" customWidth="1"/>
-    <col min="15361" max="15361" width="76.8" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="32.9" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="21.2" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="20.2" style="1" customWidth="1"/>
+    <col min="15360" max="15360" width="15.8984375" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="76.796875" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="32.8984375" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="21.19921875" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="20.19921875" style="1" customWidth="1"/>
     <col min="15365" max="15615" width="9" style="1"/>
-    <col min="15616" max="15616" width="15.9" style="1" customWidth="1"/>
-    <col min="15617" max="15617" width="76.8" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="32.9" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="21.2" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="20.2" style="1" customWidth="1"/>
+    <col min="15616" max="15616" width="15.8984375" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="76.796875" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="32.8984375" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="21.19921875" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="20.19921875" style="1" customWidth="1"/>
     <col min="15621" max="15871" width="9" style="1"/>
-    <col min="15872" max="15872" width="15.9" style="1" customWidth="1"/>
-    <col min="15873" max="15873" width="76.8" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="32.9" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="21.2" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="20.2" style="1" customWidth="1"/>
+    <col min="15872" max="15872" width="15.8984375" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="76.796875" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="32.8984375" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="21.19921875" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="20.19921875" style="1" customWidth="1"/>
     <col min="15877" max="16127" width="9" style="1"/>
-    <col min="16128" max="16128" width="15.9" style="1" customWidth="1"/>
-    <col min="16129" max="16129" width="76.8" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="32.9" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="21.2" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="20.2" style="1" customWidth="1"/>
+    <col min="16128" max="16128" width="15.8984375" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="76.796875" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="32.8984375" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="21.19921875" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="20.19921875" style="1" customWidth="1"/>
     <col min="16133" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="C2" s="4">
         <v>18583688812</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="C7" s="4">
         <v>18583688812</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="4">
         <v>18583688812</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="4">
         <v>18583688812</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="4">
         <v>18583688812</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="4">
         <v>18583688812</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>4399</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="4">
         <v>1578</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="4">
         <v>18583688812</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="4">
         <v>18583688812</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="4">
         <v>18583688812</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="C21" s="4">
         <v>18583688812</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="C22" s="4">
         <v>18583688812</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="C24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>91</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="4">
         <v>18583688812</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="C26" s="4">
         <v>18583688812</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="C27" s="4">
         <v>18583688812</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>360</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="4">
         <v>18583688812</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="C29" s="4">
         <v>18583688812</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="13" t="s">
-        <v>184</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>87</v>
       </c>
@@ -3914,66 +3337,66 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId2" display="http://developer.huawei.com/wiki/index.php?title=SDK%E4%B8%8B%E8%BD%BD" tooltip="http://developer.huawei.com/wiki/index.php?title=SDK%E4%B8%8B%E8%BD%BD"/>
-    <hyperlink ref="B3" r:id="rId3" display="http://dev.game.gionee.com/login/login.html"/>
-    <hyperlink ref="B4" r:id="rId4" display="http://open.lenovo.com/developer/index.jsp" tooltip="http://open.lenovo.com/developer/index.jsp"/>
-    <hyperlink ref="C4" r:id="rId5" display="7462361@qq.com" tooltip="mailto:7462361@qq.com"/>
-    <hyperlink ref="B5" r:id="rId6" display="http://open.oppomobile.com/"/>
-    <hyperlink ref="B9" r:id="rId7" display="http://open.wandoujia.com/home"/>
-    <hyperlink ref="B8" r:id="rId8" display="http://game.open.uc.cn/"/>
-    <hyperlink ref="B11" r:id="rId9" display="http://open.muzhiwan.com/?action=public&amp;opt=login"/>
-    <hyperlink ref="B12" r:id="rId10" display="http://open.wan.sogou.com/"/>
-    <hyperlink ref="B13" r:id="rId11" display="http://developer.xiaomi.com"/>
-    <hyperlink ref="B14" r:id="rId12" display="http://dev.ouwan.com"/>
-    <hyperlink ref="C14" r:id="rId5" display="7462361@qq.com" tooltip="mailto:7462361@qq.com"/>
-    <hyperlink ref="B15" r:id="rId13" display="http://open.4399.cn/main" tooltip="http://open.4399.cn/main"/>
-    <hyperlink ref="B16" r:id="rId14" display="http://money.downjoy.com/connectadmin/login.html"/>
-    <hyperlink ref="B17" r:id="rId15" display="http://www.mumayi.com/"/>
-    <hyperlink ref="B18" r:id="rId16" display="http://dev.gfan.com/Aspx/DevApp/RegDev_Company_Second.aspx"/>
-    <hyperlink ref="B19" r:id="rId17" display="http://dev.appchina.com/market/dev/main.action"/>
-    <hyperlink ref="B20" r:id="rId18" display="http://open.play.cn/dev/register/jumpToCp"/>
-    <hyperlink ref="B21" r:id="rId19" display="http://www.nduoa.com/developer/setting/index"/>
-    <hyperlink ref="B22" r:id="rId20" display="http://open.itools.cn/"/>
-    <hyperlink ref="B24" r:id="rId21" display="http://open.7659.com/?r=login/register"/>
-    <hyperlink ref="B25" r:id="rId22" display="http://dev.91.com/Home/Login"/>
-    <hyperlink ref="B26" r:id="rId23" display="http://www.tongbu.com/zhushou/?s=mac#firstPage"/>
-    <hyperlink ref="B27" r:id="rId24" display="http://pay.haima.me/index.php?m=login&amp;a=success_register&amp;amid=937"/>
-    <hyperlink ref="C24" r:id="rId5" display="7462361@qq.com"/>
-    <hyperlink ref="B28" r:id="rId25" display="http://dev.360.cn/"/>
-    <hyperlink ref="B29" r:id="rId26" display="http://app.baidu.com/"/>
-    <hyperlink ref="B7" r:id="rId27" display="http://appdev.coolyun.com/ylra/" tooltip="http://appdev.coolyun.com/ylra/"/>
-    <hyperlink ref="B6" r:id="rId28" display="https://dev.vivo.com.cn/index.jsp"/>
-    <hyperlink ref="C6" r:id="rId29" display="liujie@huiyaohuyu.com" tooltip="mailto:liujie@huiyaohuyu.com"/>
-    <hyperlink ref="C5" r:id="rId5" display="7462361@qq.com" tooltip="mailto:7462361@qq.com"/>
-    <hyperlink ref="B30" r:id="rId30" display="http://developer.ccplay.cc/login" tooltip="http://developer.ccplay.cc/login"/>
-    <hyperlink ref="C30" r:id="rId29" display="liujie@huiyaohuyu.com" tooltip="mailto:liujie@huiyaohuyu.com"/>
-    <hyperlink ref="B31" r:id="rId31" display="http://dev.anzhi.com/home.php"/>
-    <hyperlink ref="C3" r:id="rId5" display="7462361@qq.com"/>
-    <hyperlink ref="B33" r:id="rId32" display="http://dev.1sdk.cn/server/account_info.html "/>
-    <hyperlink ref="C33" r:id="rId29" display="liujie@huiyaohuyu.com"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://developer.huawei.com/wiki/index.php?title=SDK%E4%B8%8B%E8%BD%BD"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="http://open.lenovo.com/developer/index.jsp"/>
+    <hyperlink ref="C4" r:id="rId4" tooltip="mailto:7462361@qq.com"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12" tooltip="mailto:7462361@qq.com"/>
+    <hyperlink ref="B15" r:id="rId13" tooltip="http://open.4399.cn/main"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="C24" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B7" r:id="rId28" tooltip="http://appdev.coolyun.com/ylra/"/>
+    <hyperlink ref="B6" r:id="rId29"/>
+    <hyperlink ref="C6" r:id="rId30" tooltip="mailto:liujie@huiyaohuyu.com"/>
+    <hyperlink ref="C5" r:id="rId31" tooltip="mailto:7462361@qq.com"/>
+    <hyperlink ref="B30" r:id="rId32" tooltip="http://developer.ccplay.cc/login"/>
+    <hyperlink ref="C30" r:id="rId33" tooltip="mailto:liujie@huiyaohuyu.com"/>
+    <hyperlink ref="B31" r:id="rId34"/>
+    <hyperlink ref="C3" r:id="rId35"/>
+    <hyperlink ref="B33" r:id="rId36"/>
+    <hyperlink ref="C33" r:id="rId37"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>
--- a/渠道文档/渠道SDK信息统计.xlsx
+++ b/渠道文档/渠道SDK信息统计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="191">
   <si>
     <t>渠道</t>
   </si>
@@ -337,16 +337,10 @@
     <t>游龙</t>
   </si>
   <si>
-    <t>v1.8</t>
-  </si>
-  <si>
     <t>.youlong</t>
   </si>
   <si>
     <t>芒果玩</t>
-  </si>
-  <si>
-    <t>V1.07</t>
   </si>
   <si>
     <r>
@@ -370,9 +364,6 @@
     <t>小财神</t>
   </si>
   <si>
-    <t>V1.1.6</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -409,208 +400,248 @@
     <t>7K7K</t>
   </si>
   <si>
+    <t>.qike</t>
+  </si>
+  <si>
+    <t>免商店</t>
+  </si>
+  <si>
+    <t>.snail</t>
+  </si>
+  <si>
+    <t>37游戏</t>
+  </si>
+  <si>
+    <t>.sy37</t>
+  </si>
+  <si>
+    <t>易接</t>
+  </si>
+  <si>
+    <t>渠道名称</t>
+  </si>
+  <si>
+    <t>开发者入口</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>http://developer.huawei.com/wiki/index.php?title=SDK%E4%B8%8B%E8%BD%BD</t>
+  </si>
+  <si>
+    <t>Aa5224955</t>
+  </si>
+  <si>
+    <t>http://dev.game.gionee.com/login/login.html</t>
+  </si>
+  <si>
+    <t>7462361@qq.com</t>
+  </si>
+  <si>
+    <t>a5224955</t>
+  </si>
+  <si>
+    <t>联想</t>
+  </si>
+  <si>
+    <t>http://open.lenovo.com/developer/index.jsp</t>
+  </si>
+  <si>
+    <t>http://open.oppomobile.com/</t>
+  </si>
+  <si>
+    <t>vivo</t>
+  </si>
+  <si>
+    <t>https://dev.vivo.com.cn/index.jsp</t>
+  </si>
+  <si>
+    <t>liujie@huiyaohuyu.com</t>
+  </si>
+  <si>
+    <t>酷派</t>
+  </si>
+  <si>
+    <t>http://appdev.coolyun.com/ylra/</t>
+  </si>
+  <si>
+    <t>http://game.open.uc.cn/</t>
+  </si>
+  <si>
+    <t>ugohy7462361</t>
+  </si>
+  <si>
+    <t>http://open.wandoujia.com/home</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://developer.meizu.com</t>
+  </si>
+  <si>
+    <t>http://open.muzhiwan.com/?action=public&amp;opt=login</t>
+  </si>
+  <si>
+    <t>搜狗开发者后台</t>
+  </si>
+  <si>
+    <t>http://open.wan.sogou.com/</t>
+  </si>
+  <si>
+    <t>http://developer.xiaomi.com</t>
+  </si>
+  <si>
+    <t>http://dev.ouwan.com</t>
+  </si>
+  <si>
+    <t>http://open.4399.cn/main</t>
+  </si>
+  <si>
+    <t>http://money.downjoy.com/connectadmin/login.html</t>
+  </si>
+  <si>
+    <t>JCvU3139</t>
+  </si>
+  <si>
+    <t>http://www.mumayi.com/</t>
+  </si>
+  <si>
+    <t>http://dev.gfan.com/Aspx/DevApp/RegDev_Company_Second.aspx</t>
+  </si>
+  <si>
+    <t>http://dev.appchina.com/market/dev/main.action</t>
+  </si>
+  <si>
+    <t>http://open.play.cn/dev/register/jumpToCp</t>
+  </si>
+  <si>
+    <t>N多市场</t>
+  </si>
+  <si>
+    <t>http://www.nduoa.com/developer/setting/index</t>
+  </si>
+  <si>
+    <t>ITOOLS</t>
+  </si>
+  <si>
+    <t>http://open.itools.cn/</t>
+  </si>
+  <si>
+    <t>XY手机助手</t>
+  </si>
+  <si>
+    <t>http://dev.xyzs.com/pendingAudit</t>
+  </si>
+  <si>
+    <t>ugohy7462361s</t>
+  </si>
+  <si>
+    <t>快用手机助手</t>
+  </si>
+  <si>
+    <t>http://open.7659.com/?r=login/register</t>
+  </si>
+  <si>
+    <t>http://dev.91.com/Home/Login</t>
+  </si>
+  <si>
+    <t>同步推</t>
+  </si>
+  <si>
+    <t>http://www.tongbu.com/zhushou/?s=mac#firstPage</t>
+  </si>
+  <si>
+    <t>海马游戏中心</t>
+  </si>
+  <si>
+    <t>http://pay.haima.me/index.php?m=login&amp;a=success_register&amp;amid=937</t>
+  </si>
+  <si>
+    <t>http://dev.360.cn/</t>
+  </si>
+  <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>http://app.baidu.com/</t>
+  </si>
+  <si>
+    <t>http://developer.ccplay.cc/login</t>
+  </si>
+  <si>
+    <t>http://dev.anzhi.com/home.php</t>
+  </si>
+  <si>
+    <t>open.guopan.cn</t>
+  </si>
+  <si>
+    <t>uyigou001</t>
+  </si>
+  <si>
+    <t>uyigou00@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dev.1sdk.cn/server/account_info.html </t>
+  </si>
+  <si>
+    <t>靠谱助手</t>
+  </si>
+  <si>
+    <t>朵唯</t>
+  </si>
+  <si>
+    <t>游戏群</t>
+  </si>
+  <si>
+    <t>v1.8</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4.5.03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>v1.2.1.1</t>
-  </si>
-  <si>
-    <t>.qike</t>
-  </si>
-  <si>
-    <t>免商店</t>
-  </si>
-  <si>
-    <t>.snail</t>
-  </si>
-  <si>
-    <t>37游戏</t>
-  </si>
-  <si>
-    <t>.sy37</t>
-  </si>
-  <si>
-    <t>易接</t>
-  </si>
-  <si>
-    <t>渠道名称</t>
-  </si>
-  <si>
-    <t>开发者入口</t>
-  </si>
-  <si>
-    <t>账号</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>华为</t>
-  </si>
-  <si>
-    <t>http://developer.huawei.com/wiki/index.php?title=SDK%E4%B8%8B%E8%BD%BD</t>
-  </si>
-  <si>
-    <t>Aa5224955</t>
-  </si>
-  <si>
-    <t>http://dev.game.gionee.com/login/login.html</t>
-  </si>
-  <si>
-    <t>7462361@qq.com</t>
-  </si>
-  <si>
-    <t>a5224955</t>
-  </si>
-  <si>
-    <t>联想</t>
-  </si>
-  <si>
-    <t>http://open.lenovo.com/developer/index.jsp</t>
-  </si>
-  <si>
-    <t>http://open.oppomobile.com/</t>
-  </si>
-  <si>
-    <t>vivo</t>
-  </si>
-  <si>
-    <t>https://dev.vivo.com.cn/index.jsp</t>
-  </si>
-  <si>
-    <t>liujie@huiyaohuyu.com</t>
-  </si>
-  <si>
-    <t>酷派</t>
-  </si>
-  <si>
-    <t>http://appdev.coolyun.com/ylra/</t>
-  </si>
-  <si>
-    <t>http://game.open.uc.cn/</t>
-  </si>
-  <si>
-    <t>ugohy7462361</t>
-  </si>
-  <si>
-    <t>http://open.wandoujia.com/home</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://developer.meizu.com</t>
-  </si>
-  <si>
-    <t>http://open.muzhiwan.com/?action=public&amp;opt=login</t>
-  </si>
-  <si>
-    <t>搜狗开发者后台</t>
-  </si>
-  <si>
-    <t>http://open.wan.sogou.com/</t>
-  </si>
-  <si>
-    <t>http://developer.xiaomi.com</t>
-  </si>
-  <si>
-    <t>http://dev.ouwan.com</t>
-  </si>
-  <si>
-    <t>http://open.4399.cn/main</t>
-  </si>
-  <si>
-    <t>http://money.downjoy.com/connectadmin/login.html</t>
-  </si>
-  <si>
-    <t>JCvU3139</t>
-  </si>
-  <si>
-    <t>http://www.mumayi.com/</t>
-  </si>
-  <si>
-    <t>http://dev.gfan.com/Aspx/DevApp/RegDev_Company_Second.aspx</t>
-  </si>
-  <si>
-    <t>http://dev.appchina.com/market/dev/main.action</t>
-  </si>
-  <si>
-    <t>http://open.play.cn/dev/register/jumpToCp</t>
-  </si>
-  <si>
-    <t>N多市场</t>
-  </si>
-  <si>
-    <t>http://www.nduoa.com/developer/setting/index</t>
-  </si>
-  <si>
-    <t>ITOOLS</t>
-  </si>
-  <si>
-    <t>http://open.itools.cn/</t>
-  </si>
-  <si>
-    <t>XY手机助手</t>
-  </si>
-  <si>
-    <t>http://dev.xyzs.com/pendingAudit</t>
-  </si>
-  <si>
-    <t>ugohy7462361s</t>
-  </si>
-  <si>
-    <t>快用手机助手</t>
-  </si>
-  <si>
-    <t>http://open.7659.com/?r=login/register</t>
-  </si>
-  <si>
-    <t>http://dev.91.com/Home/Login</t>
-  </si>
-  <si>
-    <t>同步推</t>
-  </si>
-  <si>
-    <t>http://www.tongbu.com/zhushou/?s=mac#firstPage</t>
-  </si>
-  <si>
-    <t>海马游戏中心</t>
-  </si>
-  <si>
-    <t>http://pay.haima.me/index.php?m=login&amp;a=success_register&amp;amid=937</t>
-  </si>
-  <si>
-    <t>http://dev.360.cn/</t>
-  </si>
-  <si>
-    <t>百度</t>
-  </si>
-  <si>
-    <t>http://app.baidu.com/</t>
-  </si>
-  <si>
-    <t>http://developer.ccplay.cc/login</t>
-  </si>
-  <si>
-    <t>http://dev.anzhi.com/home.php</t>
-  </si>
-  <si>
-    <t>open.guopan.cn</t>
-  </si>
-  <si>
-    <t>uyigou001</t>
-  </si>
-  <si>
-    <t>uyigou00@</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dev.1sdk.cn/server/account_info.html </t>
-  </si>
-  <si>
-    <t>靠谱助手</t>
-  </si>
-  <si>
-    <t>朵唯</t>
-  </si>
-  <si>
-    <t>游戏群</t>
-  </si>
-  <si>
-    <t>V4.5.03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vV2.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1.1_235</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>encent</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +649,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -663,6 +694,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -775,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,6 +890,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -872,7 +918,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="A1:K46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="A1:K47">
   <tableColumns count="11">
     <tableColumn id="1" name="渠道"/>
     <tableColumn id="2" name="接入版本"/>
@@ -1160,11 +1206,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2215,8 +2261,8 @@
       <c r="A36" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>105</v>
+      <c r="B36" s="27" t="s">
+        <v>182</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="20" t="s">
@@ -2226,7 +2272,7 @@
         <v>27</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>15</v>
@@ -2240,10 +2286,10 @@
     </row>
     <row r="37" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>183</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="19" t="s">
@@ -2253,7 +2299,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>15</v>
@@ -2267,10 +2313,10 @@
     </row>
     <row r="38" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="20" t="s">
@@ -2280,7 +2326,7 @@
         <v>27</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>15</v>
@@ -2294,10 +2340,10 @@
     </row>
     <row r="39" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>186</v>
+        <v>110</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>185</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="20" t="s">
@@ -2307,7 +2353,7 @@
         <v>27</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -2317,7 +2363,7 @@
     </row>
     <row r="40" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2332,7 +2378,7 @@
     </row>
     <row r="41" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2347,7 +2393,7 @@
     </row>
     <row r="42" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -2362,10 +2408,10 @@
     </row>
     <row r="43" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>186</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="20" t="s">
@@ -2375,7 +2421,7 @@
         <v>27</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>15</v>
@@ -2389,14 +2435,14 @@
     </row>
     <row r="44" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>15</v>
@@ -2408,14 +2454,14 @@
     </row>
     <row r="45" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
@@ -2425,10 +2471,10 @@
     </row>
     <row r="46" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="19">
-        <v>2.2000000000000002</v>
+        <v>121</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>187</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="19" t="s">
@@ -2451,6 +2497,29 @@
       </c>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2861,30 +2930,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4">
         <v>18583688812</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2892,27 +2961,27 @@
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2920,41 +2989,41 @@
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C7" s="4">
         <v>18583688812</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2962,13 +3031,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2976,13 +3045,13 @@
         <v>38</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4">
         <v>18583688812</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2990,13 +3059,13 @@
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4">
         <v>18583688812</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3004,27 +3073,27 @@
         <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4">
         <v>18583688812</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3032,13 +3101,13 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4">
         <v>18583688812</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3046,13 +3115,13 @@
         <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3060,13 +3129,13 @@
         <v>4399</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3074,13 +3143,13 @@
         <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C16" s="4">
         <v>1578</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3088,13 +3157,13 @@
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4">
         <v>18583688812</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3102,13 +3171,13 @@
         <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3116,13 +3185,13 @@
         <v>93</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C19" s="4">
         <v>18583688812</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3130,69 +3199,69 @@
         <v>77</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4">
         <v>18583688812</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C21" s="4">
         <v>18583688812</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C22" s="4">
         <v>18583688812</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3200,41 +3269,41 @@
         <v>91</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C25" s="4">
         <v>18583688812</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4">
         <v>18583688812</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C27" s="4">
         <v>18583688812</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3242,27 +3311,27 @@
         <v>360</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C28" s="4">
         <v>18583688812</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C29" s="4">
         <v>18583688812</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3270,13 +3339,13 @@
         <v>63</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3284,13 +3353,13 @@
         <v>41</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3298,32 +3367,32 @@
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3339,7 +3408,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -3347,7 +3416,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>

--- a/渠道文档/渠道SDK信息统计.xlsx
+++ b/渠道文档/渠道SDK信息统计.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="193">
   <si>
     <t>渠道</t>
   </si>
@@ -643,6 +643,13 @@
       <t>encent</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>07073</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>v5.0.1</t>
   </si>
 </sst>
 </file>
@@ -812,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -899,6 +906,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -918,7 +928,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="A1:K47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="A1:K48">
   <tableColumns count="11">
     <tableColumn id="1" name="渠道"/>
     <tableColumn id="2" name="接入版本"/>
@@ -1206,11 +1216,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2483,9 +2493,7 @@
       <c r="E46" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="F46" s="19"/>
       <c r="G46" s="20" t="s">
         <v>15</v>
       </c>
@@ -2512,14 +2520,33 @@
       <c r="E47" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="28" t="s">
-        <v>189</v>
-      </c>
+      <c r="F47" s="28"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/渠道文档/渠道SDK信息统计.xlsx
+++ b/渠道文档/渠道SDK信息统计.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\渠道文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13068"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="技术" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197">
   <si>
     <t>渠道</t>
   </si>
@@ -274,6 +269,9 @@
     <t>乐视</t>
   </si>
   <si>
+    <t>.leshi</t>
+  </si>
+  <si>
     <t>海马玩</t>
   </si>
   <si>
@@ -337,10 +335,16 @@
     <t>游龙</t>
   </si>
   <si>
+    <t>v1.8</t>
+  </si>
+  <si>
     <t>.youlong</t>
   </si>
   <si>
     <t>芒果玩</t>
+  </si>
+  <si>
+    <t>v1.07</t>
   </si>
   <si>
     <r>
@@ -364,6 +368,9 @@
     <t>小财神</t>
   </si>
   <si>
+    <t>v1.1.6</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -385,6 +392,9 @@
     <t>PPTV</t>
   </si>
   <si>
+    <t>v4.5.03</t>
+  </si>
+  <si>
     <t>.pptv</t>
   </si>
   <si>
@@ -400,6 +410,9 @@
     <t>7K7K</t>
   </si>
   <si>
+    <t>v1.2.1.1</t>
+  </si>
+  <si>
     <t>.qike</t>
   </si>
   <si>
@@ -418,6 +431,33 @@
     <t>易接</t>
   </si>
   <si>
+    <t>vV2.2</t>
+  </si>
+  <si>
+    <t>Tencent</t>
+  </si>
+  <si>
+    <t>v1.1.1_235</t>
+  </si>
+  <si>
+    <t>07073</t>
+  </si>
+  <si>
+    <t>v5.0.1</t>
+  </si>
+  <si>
+    <t>朋友玩</t>
+  </si>
+  <si>
+    <t>v1.0.7</t>
+  </si>
+  <si>
+    <t>全民游戏</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
     <t>渠道名称</t>
   </si>
   <si>
@@ -596,67 +636,19 @@
   </si>
   <si>
     <t>游戏群</t>
-  </si>
-  <si>
-    <t>v1.8</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.07</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.1.6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>v4.5.03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.2.1.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vV2.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.1.1_235</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>encent</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>07073</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>v5.0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -695,24 +687,167 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,12 +856,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -810,16 +1137,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,25 +1401,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -864,13 +1430,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -882,13 +1448,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -897,38 +1478,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFD7D7D7"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFD7D7D7"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFD7D7D7"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFD7D7D7"/>
+        </bottom>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="A1:K48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表2" displayName="表2" ref="A1:K50">
   <tableColumns count="11">
     <tableColumn id="1" name="渠道"/>
     <tableColumn id="2" name="接入版本"/>
@@ -1215,68 +1877,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="16.59765625" customWidth="1"/>
-    <col min="6" max="6" width="22.09765625" customWidth="1"/>
-    <col min="7" max="7" width="10.8984375" customWidth="1"/>
-    <col min="8" max="10" width="10.69921875" customWidth="1"/>
-    <col min="11" max="11" width="18.19921875" customWidth="1"/>
-    <col min="12" max="12" width="15.69921875" customWidth="1"/>
-    <col min="13" max="13" width="12.69921875" customWidth="1"/>
-    <col min="14" max="14" width="10.69921875" customWidth="1"/>
-    <col min="15" max="15" width="16.59765625" customWidth="1"/>
+    <col min="1" max="5" width="16.6" customWidth="1"/>
+    <col min="6" max="6" width="22.1" customWidth="1"/>
+    <col min="7" max="7" width="10.9" customWidth="1"/>
+    <col min="8" max="10" width="10.7" customWidth="1"/>
+    <col min="11" max="11" width="18.2" customWidth="1"/>
+    <col min="12" max="12" width="15.7" customWidth="1"/>
+    <col min="13" max="13" width="12.7" customWidth="1"/>
+    <col min="14" max="14" width="10.7" customWidth="1"/>
+    <col min="15" max="15" width="16.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="19.95" customHeight="1" spans="1:15">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+    </row>
+    <row r="2" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -1299,13 +1963,13 @@
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-    </row>
-    <row r="3" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A3" s="22">
         <v>360</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -1328,13 +1992,13 @@
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-    </row>
-    <row r="4" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -1363,13 +2027,13 @@
       <c r="K4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-    </row>
-    <row r="5" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -1398,13 +2062,13 @@
       <c r="K5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-    </row>
-    <row r="6" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A6" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -1433,38 +2097,48 @@
       <c r="K6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-    </row>
-    <row r="7" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A7" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="21" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-    </row>
-    <row r="8" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="K7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A8" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -1483,21 +2157,25 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-    </row>
-    <row r="9" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A9" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="21" t="s">
         <v>37</v>
       </c>
@@ -1514,21 +2192,25 @@
       <c r="K9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-    </row>
-    <row r="10" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A10" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="21" t="s">
         <v>40</v>
       </c>
@@ -1545,13 +2227,13 @@
       <c r="K10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -1580,13 +2262,13 @@
       <c r="K11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-    </row>
-    <row r="12" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A12" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -1615,21 +2297,25 @@
       <c r="K12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-    </row>
-    <row r="13" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A13" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="21" t="s">
         <v>49</v>
       </c>
@@ -1639,16 +2325,20 @@
       <c r="H13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-    </row>
-    <row r="14" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="K13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A14" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -1677,13 +2367,13 @@
       <c r="K14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-    </row>
-    <row r="15" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A15" s="22">
         <v>4399</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -1702,17 +2392,23 @@
       <c r="G15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="H15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-    </row>
-    <row r="16" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="K15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A16" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -1731,13 +2427,13 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-    </row>
-    <row r="17" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A17" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -1768,13 +2464,13 @@
       <c r="K17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-    </row>
-    <row r="18" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A18" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -1803,13 +2499,13 @@
       <c r="K18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-    </row>
-    <row r="19" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A19" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -1840,63 +2536,83 @@
       <c r="K19" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-    </row>
-    <row r="20" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A20" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" s="21" t="s">
         <v>70</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="H20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-    </row>
-    <row r="21" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="K20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A21" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="F21" s="21" t="s">
         <v>73</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="H21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-    </row>
-    <row r="22" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="K21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+    </row>
+    <row r="22" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A22" s="18" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -1915,13 +2631,13 @@
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-    </row>
-    <row r="23" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A23" s="18" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -1940,13 +2656,13 @@
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-    </row>
-    <row r="24" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A24" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -1975,13 +2691,13 @@
       <c r="K24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-    </row>
-    <row r="25" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A25" s="18" t="s">
         <v>83</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -1994,7 +2710,9 @@
       <c r="E25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="G25" s="21" t="s">
         <v>15</v>
       </c>
@@ -2010,17 +2728,17 @@
       <c r="K25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-    </row>
-    <row r="26" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>84</v>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+    </row>
+    <row r="26" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A26" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21" t="s">
@@ -2030,7 +2748,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>15</v>
@@ -2045,23 +2763,27 @@
       <c r="K26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-    </row>
-    <row r="27" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>87</v>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A27" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="F27" s="21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>15</v>
@@ -2076,23 +2798,27 @@
       <c r="K27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-    </row>
-    <row r="28" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>90</v>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+    </row>
+    <row r="28" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A28" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>15</v>
@@ -2107,13 +2833,13 @@
       <c r="K28" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-    </row>
-    <row r="29" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A29" s="22">
         <v>9669</v>
       </c>
       <c r="B29" s="21"/>
@@ -2126,17 +2852,17 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-    </row>
-    <row r="30" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>93</v>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+    </row>
+    <row r="30" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A30" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
@@ -2146,7 +2872,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>15</v>
@@ -2161,17 +2887,17 @@
       <c r="K30" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-    </row>
-    <row r="31" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>96</v>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+    </row>
+    <row r="31" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A31" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="20" t="s">
@@ -2181,7 +2907,7 @@
         <v>27</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>15</v>
@@ -2196,14 +2922,14 @@
       <c r="K31" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-    </row>
-    <row r="32" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>99</v>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+    </row>
+    <row r="32" ht="19.95" customHeight="1" spans="1:15">
+      <c r="A32" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -2215,21 +2941,21 @@
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-    </row>
-    <row r="33" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>100</v>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+    </row>
+    <row r="33" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A33" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -2237,9 +2963,9 @@
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>102</v>
+    <row r="34" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A34" s="18" t="s">
+        <v>103</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -2252,9 +2978,9 @@
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>103</v>
+    <row r="35" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A35" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -2267,12 +2993,12 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>182</v>
+    <row r="36" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A36" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="20" t="s">
@@ -2282,7 +3008,7 @@
         <v>27</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G36" s="20" t="s">
         <v>15</v>
@@ -2290,16 +3016,20 @@
       <c r="H36" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="21"/>
+      <c r="I36" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-    </row>
-    <row r="37" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>183</v>
+      <c r="K36" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A37" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="19" t="s">
@@ -2309,7 +3039,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>15</v>
@@ -2317,16 +3047,20 @@
       <c r="H37" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="21"/>
+      <c r="I37" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>184</v>
+      <c r="K37" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A38" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="20" t="s">
@@ -2336,7 +3070,7 @@
         <v>27</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G38" s="20" t="s">
         <v>15</v>
@@ -2344,16 +3078,20 @@
       <c r="H38" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="21"/>
+      <c r="I38" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>185</v>
+      <c r="K38" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A39" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="20" t="s">
@@ -2363,17 +3101,25 @@
         <v>27</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+        <v>116</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>112</v>
+      <c r="K39" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A40" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -2386,9 +3132,9 @@
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>113</v>
+    <row r="41" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A41" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -2401,27 +3147,35 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>114</v>
+    <row r="42" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A42" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="G42" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>186</v>
+      <c r="K42" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A43" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="20" t="s">
@@ -2431,7 +3185,7 @@
         <v>27</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>15</v>
@@ -2439,52 +3193,78 @@
       <c r="H43" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I43" s="21"/>
+      <c r="I43" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>117</v>
+      <c r="K43" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A44" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+      <c r="D44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F44" s="21" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
+      <c r="H44" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-    </row>
-    <row r="45" spans="1:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>119</v>
+      <c r="K44" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="19.95" customHeight="1" spans="1:11">
+      <c r="A45" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+      <c r="D45" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F45" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
+        <v>126</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="1:11" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>187</v>
+      <c r="K45" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" spans="1:11">
+      <c r="A46" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>128</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="19" t="s">
@@ -2504,35 +3284,37 @@
         <v>15</v>
       </c>
       <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>188</v>
+      <c r="K46" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="1:11">
+      <c r="A47" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" s="28"/>
+      <c r="E47" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="26"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>192</v>
+    <row r="48" ht="20" customHeight="1" spans="1:11">
+      <c r="A48" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="20" t="s">
@@ -2541,958 +3323,1025 @@
       <c r="E48" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" spans="1:11">
+      <c r="A49" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+    </row>
+    <row r="50" ht="20" customHeight="1" spans="1:11">
+      <c r="A50" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50" s="28"/>
+      <c r="G50" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="28"/>
+      <c r="K50" s="21" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <conditionalFormatting sqref="D:E">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>FIND("有",D1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>FIND("无",D1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.2" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4" style="1" customWidth="1"/>
     <col min="5" max="255" width="9" style="1"/>
-    <col min="256" max="256" width="15.8984375" style="1" customWidth="1"/>
-    <col min="257" max="257" width="76.796875" style="1" customWidth="1"/>
-    <col min="258" max="258" width="32.8984375" style="1" customWidth="1"/>
-    <col min="259" max="259" width="21.19921875" style="1" customWidth="1"/>
-    <col min="260" max="260" width="20.19921875" style="1" customWidth="1"/>
+    <col min="256" max="256" width="15.9" style="1" customWidth="1"/>
+    <col min="257" max="257" width="76.8" style="1" customWidth="1"/>
+    <col min="258" max="258" width="32.9" style="1" customWidth="1"/>
+    <col min="259" max="259" width="21.2" style="1" customWidth="1"/>
+    <col min="260" max="260" width="20.2" style="1" customWidth="1"/>
     <col min="261" max="511" width="9" style="1"/>
-    <col min="512" max="512" width="15.8984375" style="1" customWidth="1"/>
-    <col min="513" max="513" width="76.796875" style="1" customWidth="1"/>
-    <col min="514" max="514" width="32.8984375" style="1" customWidth="1"/>
-    <col min="515" max="515" width="21.19921875" style="1" customWidth="1"/>
-    <col min="516" max="516" width="20.19921875" style="1" customWidth="1"/>
+    <col min="512" max="512" width="15.9" style="1" customWidth="1"/>
+    <col min="513" max="513" width="76.8" style="1" customWidth="1"/>
+    <col min="514" max="514" width="32.9" style="1" customWidth="1"/>
+    <col min="515" max="515" width="21.2" style="1" customWidth="1"/>
+    <col min="516" max="516" width="20.2" style="1" customWidth="1"/>
     <col min="517" max="767" width="9" style="1"/>
-    <col min="768" max="768" width="15.8984375" style="1" customWidth="1"/>
-    <col min="769" max="769" width="76.796875" style="1" customWidth="1"/>
-    <col min="770" max="770" width="32.8984375" style="1" customWidth="1"/>
-    <col min="771" max="771" width="21.19921875" style="1" customWidth="1"/>
-    <col min="772" max="772" width="20.19921875" style="1" customWidth="1"/>
+    <col min="768" max="768" width="15.9" style="1" customWidth="1"/>
+    <col min="769" max="769" width="76.8" style="1" customWidth="1"/>
+    <col min="770" max="770" width="32.9" style="1" customWidth="1"/>
+    <col min="771" max="771" width="21.2" style="1" customWidth="1"/>
+    <col min="772" max="772" width="20.2" style="1" customWidth="1"/>
     <col min="773" max="1023" width="9" style="1"/>
-    <col min="1024" max="1024" width="15.8984375" style="1" customWidth="1"/>
-    <col min="1025" max="1025" width="76.796875" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="32.8984375" style="1" customWidth="1"/>
-    <col min="1027" max="1027" width="21.19921875" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="20.19921875" style="1" customWidth="1"/>
+    <col min="1024" max="1024" width="15.9" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="76.8" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="32.9" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="21.2" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="20.2" style="1" customWidth="1"/>
     <col min="1029" max="1279" width="9" style="1"/>
-    <col min="1280" max="1280" width="15.8984375" style="1" customWidth="1"/>
-    <col min="1281" max="1281" width="76.796875" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="32.8984375" style="1" customWidth="1"/>
-    <col min="1283" max="1283" width="21.19921875" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="20.19921875" style="1" customWidth="1"/>
+    <col min="1280" max="1280" width="15.9" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="76.8" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="32.9" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="21.2" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="20.2" style="1" customWidth="1"/>
     <col min="1285" max="1535" width="9" style="1"/>
-    <col min="1536" max="1536" width="15.8984375" style="1" customWidth="1"/>
-    <col min="1537" max="1537" width="76.796875" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="32.8984375" style="1" customWidth="1"/>
-    <col min="1539" max="1539" width="21.19921875" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="20.19921875" style="1" customWidth="1"/>
+    <col min="1536" max="1536" width="15.9" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="76.8" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="32.9" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="21.2" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="20.2" style="1" customWidth="1"/>
     <col min="1541" max="1791" width="9" style="1"/>
-    <col min="1792" max="1792" width="15.8984375" style="1" customWidth="1"/>
-    <col min="1793" max="1793" width="76.796875" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="32.8984375" style="1" customWidth="1"/>
-    <col min="1795" max="1795" width="21.19921875" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="20.19921875" style="1" customWidth="1"/>
+    <col min="1792" max="1792" width="15.9" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="76.8" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="32.9" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="21.2" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="20.2" style="1" customWidth="1"/>
     <col min="1797" max="2047" width="9" style="1"/>
-    <col min="2048" max="2048" width="15.8984375" style="1" customWidth="1"/>
-    <col min="2049" max="2049" width="76.796875" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="32.8984375" style="1" customWidth="1"/>
-    <col min="2051" max="2051" width="21.19921875" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="20.19921875" style="1" customWidth="1"/>
+    <col min="2048" max="2048" width="15.9" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="76.8" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="32.9" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="21.2" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="20.2" style="1" customWidth="1"/>
     <col min="2053" max="2303" width="9" style="1"/>
-    <col min="2304" max="2304" width="15.8984375" style="1" customWidth="1"/>
-    <col min="2305" max="2305" width="76.796875" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="32.8984375" style="1" customWidth="1"/>
-    <col min="2307" max="2307" width="21.19921875" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="20.19921875" style="1" customWidth="1"/>
+    <col min="2304" max="2304" width="15.9" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="76.8" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="32.9" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="21.2" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="20.2" style="1" customWidth="1"/>
     <col min="2309" max="2559" width="9" style="1"/>
-    <col min="2560" max="2560" width="15.8984375" style="1" customWidth="1"/>
-    <col min="2561" max="2561" width="76.796875" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="32.8984375" style="1" customWidth="1"/>
-    <col min="2563" max="2563" width="21.19921875" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="20.19921875" style="1" customWidth="1"/>
+    <col min="2560" max="2560" width="15.9" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="76.8" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="32.9" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="21.2" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="20.2" style="1" customWidth="1"/>
     <col min="2565" max="2815" width="9" style="1"/>
-    <col min="2816" max="2816" width="15.8984375" style="1" customWidth="1"/>
-    <col min="2817" max="2817" width="76.796875" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="32.8984375" style="1" customWidth="1"/>
-    <col min="2819" max="2819" width="21.19921875" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="20.19921875" style="1" customWidth="1"/>
+    <col min="2816" max="2816" width="15.9" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="76.8" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="32.9" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="21.2" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="20.2" style="1" customWidth="1"/>
     <col min="2821" max="3071" width="9" style="1"/>
-    <col min="3072" max="3072" width="15.8984375" style="1" customWidth="1"/>
-    <col min="3073" max="3073" width="76.796875" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="32.8984375" style="1" customWidth="1"/>
-    <col min="3075" max="3075" width="21.19921875" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="20.19921875" style="1" customWidth="1"/>
+    <col min="3072" max="3072" width="15.9" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="76.8" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="32.9" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="21.2" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="20.2" style="1" customWidth="1"/>
     <col min="3077" max="3327" width="9" style="1"/>
-    <col min="3328" max="3328" width="15.8984375" style="1" customWidth="1"/>
-    <col min="3329" max="3329" width="76.796875" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="32.8984375" style="1" customWidth="1"/>
-    <col min="3331" max="3331" width="21.19921875" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="20.19921875" style="1" customWidth="1"/>
+    <col min="3328" max="3328" width="15.9" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="76.8" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="32.9" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="21.2" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="20.2" style="1" customWidth="1"/>
     <col min="3333" max="3583" width="9" style="1"/>
-    <col min="3584" max="3584" width="15.8984375" style="1" customWidth="1"/>
-    <col min="3585" max="3585" width="76.796875" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="32.8984375" style="1" customWidth="1"/>
-    <col min="3587" max="3587" width="21.19921875" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="20.19921875" style="1" customWidth="1"/>
+    <col min="3584" max="3584" width="15.9" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="76.8" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="32.9" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="21.2" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="20.2" style="1" customWidth="1"/>
     <col min="3589" max="3839" width="9" style="1"/>
-    <col min="3840" max="3840" width="15.8984375" style="1" customWidth="1"/>
-    <col min="3841" max="3841" width="76.796875" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="32.8984375" style="1" customWidth="1"/>
-    <col min="3843" max="3843" width="21.19921875" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="20.19921875" style="1" customWidth="1"/>
+    <col min="3840" max="3840" width="15.9" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="76.8" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="32.9" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="21.2" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="20.2" style="1" customWidth="1"/>
     <col min="3845" max="4095" width="9" style="1"/>
-    <col min="4096" max="4096" width="15.8984375" style="1" customWidth="1"/>
-    <col min="4097" max="4097" width="76.796875" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="32.8984375" style="1" customWidth="1"/>
-    <col min="4099" max="4099" width="21.19921875" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="20.19921875" style="1" customWidth="1"/>
+    <col min="4096" max="4096" width="15.9" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="76.8" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="32.9" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="21.2" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="20.2" style="1" customWidth="1"/>
     <col min="4101" max="4351" width="9" style="1"/>
-    <col min="4352" max="4352" width="15.8984375" style="1" customWidth="1"/>
-    <col min="4353" max="4353" width="76.796875" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="32.8984375" style="1" customWidth="1"/>
-    <col min="4355" max="4355" width="21.19921875" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="20.19921875" style="1" customWidth="1"/>
+    <col min="4352" max="4352" width="15.9" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="76.8" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="32.9" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="21.2" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="20.2" style="1" customWidth="1"/>
     <col min="4357" max="4607" width="9" style="1"/>
-    <col min="4608" max="4608" width="15.8984375" style="1" customWidth="1"/>
-    <col min="4609" max="4609" width="76.796875" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="32.8984375" style="1" customWidth="1"/>
-    <col min="4611" max="4611" width="21.19921875" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="20.19921875" style="1" customWidth="1"/>
+    <col min="4608" max="4608" width="15.9" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="76.8" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="32.9" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="21.2" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="20.2" style="1" customWidth="1"/>
     <col min="4613" max="4863" width="9" style="1"/>
-    <col min="4864" max="4864" width="15.8984375" style="1" customWidth="1"/>
-    <col min="4865" max="4865" width="76.796875" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="32.8984375" style="1" customWidth="1"/>
-    <col min="4867" max="4867" width="21.19921875" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="20.19921875" style="1" customWidth="1"/>
+    <col min="4864" max="4864" width="15.9" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="76.8" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="32.9" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="21.2" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="20.2" style="1" customWidth="1"/>
     <col min="4869" max="5119" width="9" style="1"/>
-    <col min="5120" max="5120" width="15.8984375" style="1" customWidth="1"/>
-    <col min="5121" max="5121" width="76.796875" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="32.8984375" style="1" customWidth="1"/>
-    <col min="5123" max="5123" width="21.19921875" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="20.19921875" style="1" customWidth="1"/>
+    <col min="5120" max="5120" width="15.9" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="76.8" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="32.9" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="21.2" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="20.2" style="1" customWidth="1"/>
     <col min="5125" max="5375" width="9" style="1"/>
-    <col min="5376" max="5376" width="15.8984375" style="1" customWidth="1"/>
-    <col min="5377" max="5377" width="76.796875" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="32.8984375" style="1" customWidth="1"/>
-    <col min="5379" max="5379" width="21.19921875" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="20.19921875" style="1" customWidth="1"/>
+    <col min="5376" max="5376" width="15.9" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="76.8" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="32.9" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="21.2" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="20.2" style="1" customWidth="1"/>
     <col min="5381" max="5631" width="9" style="1"/>
-    <col min="5632" max="5632" width="15.8984375" style="1" customWidth="1"/>
-    <col min="5633" max="5633" width="76.796875" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="32.8984375" style="1" customWidth="1"/>
-    <col min="5635" max="5635" width="21.19921875" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="20.19921875" style="1" customWidth="1"/>
+    <col min="5632" max="5632" width="15.9" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="76.8" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="32.9" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="21.2" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="20.2" style="1" customWidth="1"/>
     <col min="5637" max="5887" width="9" style="1"/>
-    <col min="5888" max="5888" width="15.8984375" style="1" customWidth="1"/>
-    <col min="5889" max="5889" width="76.796875" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="32.8984375" style="1" customWidth="1"/>
-    <col min="5891" max="5891" width="21.19921875" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="20.19921875" style="1" customWidth="1"/>
+    <col min="5888" max="5888" width="15.9" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="76.8" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="32.9" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="21.2" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="20.2" style="1" customWidth="1"/>
     <col min="5893" max="6143" width="9" style="1"/>
-    <col min="6144" max="6144" width="15.8984375" style="1" customWidth="1"/>
-    <col min="6145" max="6145" width="76.796875" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="32.8984375" style="1" customWidth="1"/>
-    <col min="6147" max="6147" width="21.19921875" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="20.19921875" style="1" customWidth="1"/>
+    <col min="6144" max="6144" width="15.9" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="76.8" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="32.9" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="21.2" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="20.2" style="1" customWidth="1"/>
     <col min="6149" max="6399" width="9" style="1"/>
-    <col min="6400" max="6400" width="15.8984375" style="1" customWidth="1"/>
-    <col min="6401" max="6401" width="76.796875" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="32.8984375" style="1" customWidth="1"/>
-    <col min="6403" max="6403" width="21.19921875" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="20.19921875" style="1" customWidth="1"/>
+    <col min="6400" max="6400" width="15.9" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="76.8" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="32.9" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="21.2" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="20.2" style="1" customWidth="1"/>
     <col min="6405" max="6655" width="9" style="1"/>
-    <col min="6656" max="6656" width="15.8984375" style="1" customWidth="1"/>
-    <col min="6657" max="6657" width="76.796875" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="32.8984375" style="1" customWidth="1"/>
-    <col min="6659" max="6659" width="21.19921875" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="20.19921875" style="1" customWidth="1"/>
+    <col min="6656" max="6656" width="15.9" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="76.8" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="32.9" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="21.2" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="20.2" style="1" customWidth="1"/>
     <col min="6661" max="6911" width="9" style="1"/>
-    <col min="6912" max="6912" width="15.8984375" style="1" customWidth="1"/>
-    <col min="6913" max="6913" width="76.796875" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="32.8984375" style="1" customWidth="1"/>
-    <col min="6915" max="6915" width="21.19921875" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="20.19921875" style="1" customWidth="1"/>
+    <col min="6912" max="6912" width="15.9" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="76.8" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="32.9" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="21.2" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="20.2" style="1" customWidth="1"/>
     <col min="6917" max="7167" width="9" style="1"/>
-    <col min="7168" max="7168" width="15.8984375" style="1" customWidth="1"/>
-    <col min="7169" max="7169" width="76.796875" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="32.8984375" style="1" customWidth="1"/>
-    <col min="7171" max="7171" width="21.19921875" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="20.19921875" style="1" customWidth="1"/>
+    <col min="7168" max="7168" width="15.9" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="76.8" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="32.9" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="21.2" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="20.2" style="1" customWidth="1"/>
     <col min="7173" max="7423" width="9" style="1"/>
-    <col min="7424" max="7424" width="15.8984375" style="1" customWidth="1"/>
-    <col min="7425" max="7425" width="76.796875" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="32.8984375" style="1" customWidth="1"/>
-    <col min="7427" max="7427" width="21.19921875" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="20.19921875" style="1" customWidth="1"/>
+    <col min="7424" max="7424" width="15.9" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="76.8" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="32.9" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="21.2" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="20.2" style="1" customWidth="1"/>
     <col min="7429" max="7679" width="9" style="1"/>
-    <col min="7680" max="7680" width="15.8984375" style="1" customWidth="1"/>
-    <col min="7681" max="7681" width="76.796875" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="32.8984375" style="1" customWidth="1"/>
-    <col min="7683" max="7683" width="21.19921875" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="20.19921875" style="1" customWidth="1"/>
+    <col min="7680" max="7680" width="15.9" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="76.8" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="32.9" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="21.2" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="20.2" style="1" customWidth="1"/>
     <col min="7685" max="7935" width="9" style="1"/>
-    <col min="7936" max="7936" width="15.8984375" style="1" customWidth="1"/>
-    <col min="7937" max="7937" width="76.796875" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="32.8984375" style="1" customWidth="1"/>
-    <col min="7939" max="7939" width="21.19921875" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="20.19921875" style="1" customWidth="1"/>
+    <col min="7936" max="7936" width="15.9" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="76.8" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="32.9" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="21.2" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="20.2" style="1" customWidth="1"/>
     <col min="7941" max="8191" width="9" style="1"/>
-    <col min="8192" max="8192" width="15.8984375" style="1" customWidth="1"/>
-    <col min="8193" max="8193" width="76.796875" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="32.8984375" style="1" customWidth="1"/>
-    <col min="8195" max="8195" width="21.19921875" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8192" max="8192" width="15.9" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="76.8" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="32.9" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="21.2" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="20.2" style="1" customWidth="1"/>
     <col min="8197" max="8447" width="9" style="1"/>
-    <col min="8448" max="8448" width="15.8984375" style="1" customWidth="1"/>
-    <col min="8449" max="8449" width="76.796875" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="32.8984375" style="1" customWidth="1"/>
-    <col min="8451" max="8451" width="21.19921875" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8448" max="8448" width="15.9" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="76.8" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="32.9" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="21.2" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="20.2" style="1" customWidth="1"/>
     <col min="8453" max="8703" width="9" style="1"/>
-    <col min="8704" max="8704" width="15.8984375" style="1" customWidth="1"/>
-    <col min="8705" max="8705" width="76.796875" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="32.8984375" style="1" customWidth="1"/>
-    <col min="8707" max="8707" width="21.19921875" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8704" max="8704" width="15.9" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="76.8" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="32.9" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="21.2" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="20.2" style="1" customWidth="1"/>
     <col min="8709" max="8959" width="9" style="1"/>
-    <col min="8960" max="8960" width="15.8984375" style="1" customWidth="1"/>
-    <col min="8961" max="8961" width="76.796875" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="32.8984375" style="1" customWidth="1"/>
-    <col min="8963" max="8963" width="21.19921875" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="20.19921875" style="1" customWidth="1"/>
+    <col min="8960" max="8960" width="15.9" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="76.8" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="32.9" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="21.2" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="20.2" style="1" customWidth="1"/>
     <col min="8965" max="9215" width="9" style="1"/>
-    <col min="9216" max="9216" width="15.8984375" style="1" customWidth="1"/>
-    <col min="9217" max="9217" width="76.796875" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="32.8984375" style="1" customWidth="1"/>
-    <col min="9219" max="9219" width="21.19921875" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9216" max="9216" width="15.9" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="76.8" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="32.9" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="21.2" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="20.2" style="1" customWidth="1"/>
     <col min="9221" max="9471" width="9" style="1"/>
-    <col min="9472" max="9472" width="15.8984375" style="1" customWidth="1"/>
-    <col min="9473" max="9473" width="76.796875" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="32.8984375" style="1" customWidth="1"/>
-    <col min="9475" max="9475" width="21.19921875" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9472" max="9472" width="15.9" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="76.8" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="32.9" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="21.2" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="20.2" style="1" customWidth="1"/>
     <col min="9477" max="9727" width="9" style="1"/>
-    <col min="9728" max="9728" width="15.8984375" style="1" customWidth="1"/>
-    <col min="9729" max="9729" width="76.796875" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="32.8984375" style="1" customWidth="1"/>
-    <col min="9731" max="9731" width="21.19921875" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9728" max="9728" width="15.9" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="76.8" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="32.9" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="21.2" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="20.2" style="1" customWidth="1"/>
     <col min="9733" max="9983" width="9" style="1"/>
-    <col min="9984" max="9984" width="15.8984375" style="1" customWidth="1"/>
-    <col min="9985" max="9985" width="76.796875" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="32.8984375" style="1" customWidth="1"/>
-    <col min="9987" max="9987" width="21.19921875" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9984" max="9984" width="15.9" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="76.8" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="32.9" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="21.2" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="20.2" style="1" customWidth="1"/>
     <col min="9989" max="10239" width="9" style="1"/>
-    <col min="10240" max="10240" width="15.8984375" style="1" customWidth="1"/>
-    <col min="10241" max="10241" width="76.796875" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="32.8984375" style="1" customWidth="1"/>
-    <col min="10243" max="10243" width="21.19921875" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="20.19921875" style="1" customWidth="1"/>
+    <col min="10240" max="10240" width="15.9" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="76.8" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="32.9" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="21.2" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="20.2" style="1" customWidth="1"/>
     <col min="10245" max="10495" width="9" style="1"/>
-    <col min="10496" max="10496" width="15.8984375" style="1" customWidth="1"/>
-    <col min="10497" max="10497" width="76.796875" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="32.8984375" style="1" customWidth="1"/>
-    <col min="10499" max="10499" width="21.19921875" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="20.19921875" style="1" customWidth="1"/>
+    <col min="10496" max="10496" width="15.9" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="76.8" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="32.9" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="21.2" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="20.2" style="1" customWidth="1"/>
     <col min="10501" max="10751" width="9" style="1"/>
-    <col min="10752" max="10752" width="15.8984375" style="1" customWidth="1"/>
-    <col min="10753" max="10753" width="76.796875" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="32.8984375" style="1" customWidth="1"/>
-    <col min="10755" max="10755" width="21.19921875" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="20.19921875" style="1" customWidth="1"/>
+    <col min="10752" max="10752" width="15.9" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="76.8" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="32.9" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="21.2" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="20.2" style="1" customWidth="1"/>
     <col min="10757" max="11007" width="9" style="1"/>
-    <col min="11008" max="11008" width="15.8984375" style="1" customWidth="1"/>
-    <col min="11009" max="11009" width="76.796875" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="32.8984375" style="1" customWidth="1"/>
-    <col min="11011" max="11011" width="21.19921875" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="20.19921875" style="1" customWidth="1"/>
+    <col min="11008" max="11008" width="15.9" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="76.8" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="32.9" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="21.2" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="20.2" style="1" customWidth="1"/>
     <col min="11013" max="11263" width="9" style="1"/>
-    <col min="11264" max="11264" width="15.8984375" style="1" customWidth="1"/>
-    <col min="11265" max="11265" width="76.796875" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="32.8984375" style="1" customWidth="1"/>
-    <col min="11267" max="11267" width="21.19921875" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="20.19921875" style="1" customWidth="1"/>
+    <col min="11264" max="11264" width="15.9" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="76.8" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="32.9" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="21.2" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="20.2" style="1" customWidth="1"/>
     <col min="11269" max="11519" width="9" style="1"/>
-    <col min="11520" max="11520" width="15.8984375" style="1" customWidth="1"/>
-    <col min="11521" max="11521" width="76.796875" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="32.8984375" style="1" customWidth="1"/>
-    <col min="11523" max="11523" width="21.19921875" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="20.19921875" style="1" customWidth="1"/>
+    <col min="11520" max="11520" width="15.9" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="76.8" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="32.9" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="21.2" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="20.2" style="1" customWidth="1"/>
     <col min="11525" max="11775" width="9" style="1"/>
-    <col min="11776" max="11776" width="15.8984375" style="1" customWidth="1"/>
-    <col min="11777" max="11777" width="76.796875" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="32.8984375" style="1" customWidth="1"/>
-    <col min="11779" max="11779" width="21.19921875" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="20.19921875" style="1" customWidth="1"/>
+    <col min="11776" max="11776" width="15.9" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="76.8" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="32.9" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="21.2" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="20.2" style="1" customWidth="1"/>
     <col min="11781" max="12031" width="9" style="1"/>
-    <col min="12032" max="12032" width="15.8984375" style="1" customWidth="1"/>
-    <col min="12033" max="12033" width="76.796875" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="32.8984375" style="1" customWidth="1"/>
-    <col min="12035" max="12035" width="21.19921875" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="20.19921875" style="1" customWidth="1"/>
+    <col min="12032" max="12032" width="15.9" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="76.8" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="32.9" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="21.2" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="20.2" style="1" customWidth="1"/>
     <col min="12037" max="12287" width="9" style="1"/>
-    <col min="12288" max="12288" width="15.8984375" style="1" customWidth="1"/>
-    <col min="12289" max="12289" width="76.796875" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="32.8984375" style="1" customWidth="1"/>
-    <col min="12291" max="12291" width="21.19921875" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="20.19921875" style="1" customWidth="1"/>
+    <col min="12288" max="12288" width="15.9" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="76.8" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="32.9" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="21.2" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="20.2" style="1" customWidth="1"/>
     <col min="12293" max="12543" width="9" style="1"/>
-    <col min="12544" max="12544" width="15.8984375" style="1" customWidth="1"/>
-    <col min="12545" max="12545" width="76.796875" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="32.8984375" style="1" customWidth="1"/>
-    <col min="12547" max="12547" width="21.19921875" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="20.19921875" style="1" customWidth="1"/>
+    <col min="12544" max="12544" width="15.9" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="76.8" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="32.9" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="21.2" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="20.2" style="1" customWidth="1"/>
     <col min="12549" max="12799" width="9" style="1"/>
-    <col min="12800" max="12800" width="15.8984375" style="1" customWidth="1"/>
-    <col min="12801" max="12801" width="76.796875" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="32.8984375" style="1" customWidth="1"/>
-    <col min="12803" max="12803" width="21.19921875" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="20.19921875" style="1" customWidth="1"/>
+    <col min="12800" max="12800" width="15.9" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="76.8" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="32.9" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="21.2" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="20.2" style="1" customWidth="1"/>
     <col min="12805" max="13055" width="9" style="1"/>
-    <col min="13056" max="13056" width="15.8984375" style="1" customWidth="1"/>
-    <col min="13057" max="13057" width="76.796875" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="32.8984375" style="1" customWidth="1"/>
-    <col min="13059" max="13059" width="21.19921875" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="20.19921875" style="1" customWidth="1"/>
+    <col min="13056" max="13056" width="15.9" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="76.8" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="32.9" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="21.2" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="20.2" style="1" customWidth="1"/>
     <col min="13061" max="13311" width="9" style="1"/>
-    <col min="13312" max="13312" width="15.8984375" style="1" customWidth="1"/>
-    <col min="13313" max="13313" width="76.796875" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="32.8984375" style="1" customWidth="1"/>
-    <col min="13315" max="13315" width="21.19921875" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="20.19921875" style="1" customWidth="1"/>
+    <col min="13312" max="13312" width="15.9" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="76.8" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="32.9" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="21.2" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="20.2" style="1" customWidth="1"/>
     <col min="13317" max="13567" width="9" style="1"/>
-    <col min="13568" max="13568" width="15.8984375" style="1" customWidth="1"/>
-    <col min="13569" max="13569" width="76.796875" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="32.8984375" style="1" customWidth="1"/>
-    <col min="13571" max="13571" width="21.19921875" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="20.19921875" style="1" customWidth="1"/>
+    <col min="13568" max="13568" width="15.9" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="76.8" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="32.9" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="21.2" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="20.2" style="1" customWidth="1"/>
     <col min="13573" max="13823" width="9" style="1"/>
-    <col min="13824" max="13824" width="15.8984375" style="1" customWidth="1"/>
-    <col min="13825" max="13825" width="76.796875" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="32.8984375" style="1" customWidth="1"/>
-    <col min="13827" max="13827" width="21.19921875" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="20.19921875" style="1" customWidth="1"/>
+    <col min="13824" max="13824" width="15.9" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="76.8" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="32.9" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="21.2" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="20.2" style="1" customWidth="1"/>
     <col min="13829" max="14079" width="9" style="1"/>
-    <col min="14080" max="14080" width="15.8984375" style="1" customWidth="1"/>
-    <col min="14081" max="14081" width="76.796875" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="32.8984375" style="1" customWidth="1"/>
-    <col min="14083" max="14083" width="21.19921875" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="20.19921875" style="1" customWidth="1"/>
+    <col min="14080" max="14080" width="15.9" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="76.8" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="32.9" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="21.2" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="20.2" style="1" customWidth="1"/>
     <col min="14085" max="14335" width="9" style="1"/>
-    <col min="14336" max="14336" width="15.8984375" style="1" customWidth="1"/>
-    <col min="14337" max="14337" width="76.796875" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="32.8984375" style="1" customWidth="1"/>
-    <col min="14339" max="14339" width="21.19921875" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="20.19921875" style="1" customWidth="1"/>
+    <col min="14336" max="14336" width="15.9" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="76.8" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="32.9" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="21.2" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="20.2" style="1" customWidth="1"/>
     <col min="14341" max="14591" width="9" style="1"/>
-    <col min="14592" max="14592" width="15.8984375" style="1" customWidth="1"/>
-    <col min="14593" max="14593" width="76.796875" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="32.8984375" style="1" customWidth="1"/>
-    <col min="14595" max="14595" width="21.19921875" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="20.19921875" style="1" customWidth="1"/>
+    <col min="14592" max="14592" width="15.9" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="76.8" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="32.9" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="21.2" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="20.2" style="1" customWidth="1"/>
     <col min="14597" max="14847" width="9" style="1"/>
-    <col min="14848" max="14848" width="15.8984375" style="1" customWidth="1"/>
-    <col min="14849" max="14849" width="76.796875" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="32.8984375" style="1" customWidth="1"/>
-    <col min="14851" max="14851" width="21.19921875" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="20.19921875" style="1" customWidth="1"/>
+    <col min="14848" max="14848" width="15.9" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="76.8" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="32.9" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="21.2" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="20.2" style="1" customWidth="1"/>
     <col min="14853" max="15103" width="9" style="1"/>
-    <col min="15104" max="15104" width="15.8984375" style="1" customWidth="1"/>
-    <col min="15105" max="15105" width="76.796875" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="32.8984375" style="1" customWidth="1"/>
-    <col min="15107" max="15107" width="21.19921875" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="20.19921875" style="1" customWidth="1"/>
+    <col min="15104" max="15104" width="15.9" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="76.8" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="32.9" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="21.2" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="20.2" style="1" customWidth="1"/>
     <col min="15109" max="15359" width="9" style="1"/>
-    <col min="15360" max="15360" width="15.8984375" style="1" customWidth="1"/>
-    <col min="15361" max="15361" width="76.796875" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="32.8984375" style="1" customWidth="1"/>
-    <col min="15363" max="15363" width="21.19921875" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="20.19921875" style="1" customWidth="1"/>
+    <col min="15360" max="15360" width="15.9" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="76.8" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="32.9" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="21.2" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="20.2" style="1" customWidth="1"/>
     <col min="15365" max="15615" width="9" style="1"/>
-    <col min="15616" max="15616" width="15.8984375" style="1" customWidth="1"/>
-    <col min="15617" max="15617" width="76.796875" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="32.8984375" style="1" customWidth="1"/>
-    <col min="15619" max="15619" width="21.19921875" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="20.19921875" style="1" customWidth="1"/>
+    <col min="15616" max="15616" width="15.9" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="76.8" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="32.9" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="21.2" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="20.2" style="1" customWidth="1"/>
     <col min="15621" max="15871" width="9" style="1"/>
-    <col min="15872" max="15872" width="15.8984375" style="1" customWidth="1"/>
-    <col min="15873" max="15873" width="76.796875" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="32.8984375" style="1" customWidth="1"/>
-    <col min="15875" max="15875" width="21.19921875" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="20.19921875" style="1" customWidth="1"/>
+    <col min="15872" max="15872" width="15.9" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="76.8" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="32.9" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="21.2" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="20.2" style="1" customWidth="1"/>
     <col min="15877" max="16127" width="9" style="1"/>
-    <col min="16128" max="16128" width="15.8984375" style="1" customWidth="1"/>
-    <col min="16129" max="16129" width="76.796875" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="32.8984375" style="1" customWidth="1"/>
-    <col min="16131" max="16131" width="21.19921875" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="20.19921875" style="1" customWidth="1"/>
+    <col min="16128" max="16128" width="15.9" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="76.8" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="32.9" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="21.2" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="20.2" style="1" customWidth="1"/>
     <col min="16133" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C2" s="4">
         <v>18583688812</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C7" s="4">
         <v>18583688812</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C9" s="4">
         <v>18583688812</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C10" s="4">
         <v>18583688812</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C11" s="4">
         <v>18583688812</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4">
         <v>18583688812</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>4399</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C16" s="4">
         <v>1578</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C17" s="4">
         <v>18583688812</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C19" s="4">
         <v>18583688812</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C20" s="4">
         <v>18583688812</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C21" s="4">
         <v>18583688812</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C22" s="4">
         <v>18583688812</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>91</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C25" s="4">
         <v>18583688812</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C26" s="4">
         <v>18583688812</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C27" s="4">
         <v>18583688812</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>360</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C28" s="4">
         <v>18583688812</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C29" s="4">
         <v>18583688812</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="13" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="15" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://developer.huawei.com/wiki/index.php?title=SDK%E4%B8%8B%E8%BD%BD"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3" tooltip="http://open.lenovo.com/developer/index.jsp"/>
-    <hyperlink ref="C4" r:id="rId4" tooltip="mailto:7462361@qq.com"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B11" r:id="rId8"/>
-    <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="B13" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12" tooltip="mailto:7462361@qq.com"/>
-    <hyperlink ref="B15" r:id="rId13" tooltip="http://open.4399.cn/main"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="B24" r:id="rId21"/>
-    <hyperlink ref="B25" r:id="rId22"/>
-    <hyperlink ref="B26" r:id="rId23"/>
-    <hyperlink ref="B27" r:id="rId24"/>
-    <hyperlink ref="C24" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="B7" r:id="rId28" tooltip="http://appdev.coolyun.com/ylra/"/>
-    <hyperlink ref="B6" r:id="rId29"/>
-    <hyperlink ref="C6" r:id="rId30" tooltip="mailto:liujie@huiyaohuyu.com"/>
-    <hyperlink ref="C5" r:id="rId31" tooltip="mailto:7462361@qq.com"/>
-    <hyperlink ref="B30" r:id="rId32" tooltip="http://developer.ccplay.cc/login"/>
-    <hyperlink ref="C30" r:id="rId33" tooltip="mailto:liujie@huiyaohuyu.com"/>
-    <hyperlink ref="B31" r:id="rId34"/>
-    <hyperlink ref="C3" r:id="rId35"/>
-    <hyperlink ref="B33" r:id="rId36"/>
-    <hyperlink ref="C33" r:id="rId37"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://developer.huawei.com/wiki/index.php?title=SDK%E4%B8%8B%E8%BD%BD" tooltip="http://developer.huawei.com/wiki/index.php?title=SDK%E4%B8%8B%E8%BD%BD"/>
+    <hyperlink ref="B3" r:id="rId3" display="http://dev.game.gionee.com/login/login.html"/>
+    <hyperlink ref="B4" r:id="rId4" display="http://open.lenovo.com/developer/index.jsp" tooltip="http://open.lenovo.com/developer/index.jsp"/>
+    <hyperlink ref="C4" r:id="rId5" display="7462361@qq.com" tooltip="mailto:7462361@qq.com"/>
+    <hyperlink ref="B5" r:id="rId6" display="http://open.oppomobile.com/"/>
+    <hyperlink ref="B9" r:id="rId7" display="http://open.wandoujia.com/home"/>
+    <hyperlink ref="B8" r:id="rId8" display="http://game.open.uc.cn/"/>
+    <hyperlink ref="B11" r:id="rId9" display="http://open.muzhiwan.com/?action=public&amp;opt=login"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://open.wan.sogou.com/"/>
+    <hyperlink ref="B13" r:id="rId11" display="http://developer.xiaomi.com"/>
+    <hyperlink ref="B14" r:id="rId12" display="http://dev.ouwan.com"/>
+    <hyperlink ref="C14" r:id="rId5" display="7462361@qq.com" tooltip="mailto:7462361@qq.com"/>
+    <hyperlink ref="B15" r:id="rId13" display="http://open.4399.cn/main" tooltip="http://open.4399.cn/main"/>
+    <hyperlink ref="B16" r:id="rId14" display="http://money.downjoy.com/connectadmin/login.html"/>
+    <hyperlink ref="B17" r:id="rId15" display="http://www.mumayi.com/"/>
+    <hyperlink ref="B18" r:id="rId16" display="http://dev.gfan.com/Aspx/DevApp/RegDev_Company_Second.aspx"/>
+    <hyperlink ref="B19" r:id="rId17" display="http://dev.appchina.com/market/dev/main.action"/>
+    <hyperlink ref="B20" r:id="rId18" display="http://open.play.cn/dev/register/jumpToCp"/>
+    <hyperlink ref="B21" r:id="rId19" display="http://www.nduoa.com/developer/setting/index"/>
+    <hyperlink ref="B22" r:id="rId20" display="http://open.itools.cn/"/>
+    <hyperlink ref="B24" r:id="rId21" display="http://open.7659.com/?r=login/register"/>
+    <hyperlink ref="B25" r:id="rId22" display="http://dev.91.com/Home/Login"/>
+    <hyperlink ref="B26" r:id="rId23" display="http://www.tongbu.com/zhushou/?s=mac#firstPage"/>
+    <hyperlink ref="B27" r:id="rId24" display="http://pay.haima.me/index.php?m=login&amp;a=success_register&amp;amid=937"/>
+    <hyperlink ref="C24" r:id="rId5" display="7462361@qq.com"/>
+    <hyperlink ref="B28" r:id="rId25" display="http://dev.360.cn/"/>
+    <hyperlink ref="B29" r:id="rId26" display="http://app.baidu.com/"/>
+    <hyperlink ref="B7" r:id="rId27" display="http://appdev.coolyun.com/ylra/" tooltip="http://appdev.coolyun.com/ylra/"/>
+    <hyperlink ref="B6" r:id="rId28" display="https://dev.vivo.com.cn/index.jsp"/>
+    <hyperlink ref="C6" r:id="rId29" display="liujie@huiyaohuyu.com" tooltip="mailto:liujie@huiyaohuyu.com"/>
+    <hyperlink ref="C5" r:id="rId5" display="7462361@qq.com" tooltip="mailto:7462361@qq.com"/>
+    <hyperlink ref="B30" r:id="rId30" display="http://developer.ccplay.cc/login" tooltip="http://developer.ccplay.cc/login"/>
+    <hyperlink ref="C30" r:id="rId29" display="liujie@huiyaohuyu.com" tooltip="mailto:liujie@huiyaohuyu.com"/>
+    <hyperlink ref="B31" r:id="rId31" display="http://dev.anzhi.com/home.php"/>
+    <hyperlink ref="C3" r:id="rId5" display="7462361@qq.com"/>
+    <hyperlink ref="B33" r:id="rId32" display="http://dev.1sdk.cn/server/account_info.html "/>
+    <hyperlink ref="C33" r:id="rId29" display="liujie@huiyaohuyu.com"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>